--- a/INFO_and_PROFILES/Table_of_all_scan_codes.xlsx
+++ b/INFO_and_PROFILES/Table_of_all_scan_codes.xlsx
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H132" authorId="0">
+    <comment ref="G132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H140" authorId="0">
+    <comment ref="G140" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H147" authorId="0">
+    <comment ref="G147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="952">
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/API/KeyboardEvent/code</t>
   </si>
@@ -1285,18 +1285,6 @@
   </si>
   <si>
     <t>extra keyboard via Intercept.exe: left WIN</t>
-  </si>
-  <si>
-    <t>extra keyboard via Intercept.exe: right SHIFT -OR- "email tab"</t>
-  </si>
-  <si>
-    <t>extra keyboard via Intercept.exe: leftCTRL --OR-- [appskey to scancode 62] ???</t>
-  </si>
-  <si>
-    <t>extra keyboard via Intercept.exe: Leftshift</t>
-  </si>
-  <si>
-    <t>extra keyboard via Intercept.exe:  right ALT</t>
   </si>
   <si>
     <t>extra keyboard via Intercept.exe:  rightWin (AZIO keyboard)</t>
@@ -1562,9 +1550,6 @@
     <t>Don't use</t>
   </si>
   <si>
-    <t>Don't use!</t>
-  </si>
-  <si>
     <t>Probably don't use</t>
   </si>
   <si>
@@ -1655,15 +1640,9 @@
     <t>IDK how I discovered the virtual key for this….</t>
   </si>
   <si>
-    <t>intercept.exe: 1d,0,1 is left -- 1d,0,2 is right</t>
-  </si>
-  <si>
     <t>NEED TO CHANGE</t>
   </si>
   <si>
-    <t>extra keyboard via Intercept.exe: left ALT ----AND---- back(). Shouldn’t be both…</t>
-  </si>
-  <si>
     <t>1?</t>
   </si>
   <si>
@@ -1685,9 +1664,6 @@
     <t>?????</t>
   </si>
   <si>
-    <t>try LAST as modifier from corsair OR as alternative to NUM LOCK</t>
-  </si>
-  <si>
     <t>WORKS as modifier</t>
   </si>
   <si>
@@ -2081,36 +2057,12 @@
     <t>not found</t>
   </si>
   <si>
-    <t>Left shift</t>
-  </si>
-  <si>
-    <t>Left CTRL</t>
-  </si>
-  <si>
-    <t>Left WIN</t>
-  </si>
-  <si>
-    <t>Left ALT</t>
-  </si>
-  <si>
-    <t>Rshift</t>
-  </si>
-  <si>
     <t>Rctrl</t>
   </si>
   <si>
-    <t>Rwin</t>
-  </si>
-  <si>
     <t>Ralt</t>
   </si>
   <si>
-    <t>try these as</t>
-  </si>
-  <si>
-    <t>remainder</t>
-  </si>
-  <si>
     <t>num lock??</t>
   </si>
   <si>
@@ -3048,13 +3000,79 @@
   </si>
   <si>
     <t>MY CURRENT USE</t>
+  </si>
+  <si>
+    <t>extra keyboard via Intercept.exe:  right ALT, becomes pin to clip… must change.</t>
+  </si>
+  <si>
+    <t>yup</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>appskey</t>
+  </si>
+  <si>
+    <t>rightCtrl</t>
+  </si>
+  <si>
+    <t>rightShift</t>
+  </si>
+  <si>
+    <t>rightWin</t>
+  </si>
+  <si>
+    <t>rightAlt</t>
+  </si>
+  <si>
+    <t>leftShift</t>
+  </si>
+  <si>
+    <t>leftCtrl</t>
+  </si>
+  <si>
+    <t>leftWin</t>
+  </si>
+  <si>
+    <t>leftAlt</t>
+  </si>
+  <si>
+    <t>WARN CORSAIR</t>
+  </si>
+  <si>
+    <t>I will remap these as</t>
+  </si>
+  <si>
+    <t>[remainder] -capslock maybe</t>
+  </si>
+  <si>
+    <t>Don't use! "Sleep" seems dangerous.</t>
+  </si>
+  <si>
+    <t>Don't use! "Power" seems dangerous.</t>
+  </si>
+  <si>
+    <t>scroll lock on azio??</t>
+  </si>
+  <si>
+    <t>from scrol llock azio yeah</t>
+  </si>
+  <si>
+    <t>need a scroll lock</t>
+  </si>
+  <si>
+    <t>intercept.exe: 1d,0,1 is leftctrl -- 1d,0,2 is rightctrl ..???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="36">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3314,6 +3332,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3497,7 +3549,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3670,6 +3722,24 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -3976,9 +4046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L152" sqref="L151:L152"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3989,8 +4059,8 @@
     <col min="4" max="4" width="13.7265625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.90625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
     <col min="9" max="9" width="16.7265625" style="19" customWidth="1"/>
     <col min="10" max="10" width="17.26953125" style="14" customWidth="1"/>
     <col min="11" max="11" width="10.453125" customWidth="1"/>
@@ -4009,12 +4079,12 @@
       <c r="F1" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="87"/>
       <c r="J1" s="35"/>
       <c r="N1" s="84" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="Q1" s="36"/>
     </row>
@@ -4027,7 +4097,7 @@
         <v>274</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>284</v>
@@ -4035,17 +4105,17 @@
       <c r="F2" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="G2" s="69" t="s">
-        <v>631</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>495</v>
+      <c r="G2" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>944</v>
       </c>
       <c r="I2" s="88" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J2" s="70" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="Q2" s="40"/>
     </row>
@@ -4060,12 +4130,12 @@
         <v>297</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="I3" s="89"/>
       <c r="J3" s="23" t="s">
         <v>309</v>
@@ -4083,12 +4153,12 @@
         <v>298</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="I4" s="89"/>
       <c r="J4" s="23" t="s">
         <v>309</v>
@@ -4100,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="H5" s="50"/>
+      <c r="G5" s="50"/>
       <c r="I5" s="90"/>
       <c r="J5" s="16"/>
       <c r="Q5" s="24"/>
@@ -4108,7 +4178,7 @@
     <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -4118,7 +4188,7 @@
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4164,7 +4234,7 @@
         <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="I9" s="91"/>
       <c r="J9"/>
@@ -4180,7 +4250,7 @@
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="91"/>
       <c r="J10"/>
     </row>
@@ -4195,7 +4265,7 @@
       <c r="F11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="91"/>
       <c r="J11"/>
     </row>
@@ -4210,7 +4280,7 @@
       <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="91"/>
       <c r="J12"/>
     </row>
@@ -4225,7 +4295,7 @@
       <c r="F13" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="91"/>
       <c r="J13"/>
     </row>
@@ -4240,7 +4310,7 @@
       <c r="F14" s="6">
         <v>4</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="91"/>
       <c r="J14"/>
     </row>
@@ -4255,7 +4325,7 @@
       <c r="F15" s="6">
         <v>5</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="91"/>
       <c r="J15"/>
     </row>
@@ -4270,7 +4340,7 @@
       <c r="F16" s="6">
         <v>6</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="91"/>
       <c r="J16"/>
     </row>
@@ -4285,7 +4355,7 @@
       <c r="F17" s="6">
         <v>7</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="91"/>
       <c r="J17"/>
     </row>
@@ -4300,7 +4370,7 @@
       <c r="F18" s="6">
         <v>8</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="91"/>
       <c r="J18"/>
     </row>
@@ -4315,7 +4385,7 @@
       <c r="F19" s="6">
         <v>9</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="91"/>
       <c r="J19"/>
     </row>
@@ -4330,11 +4400,11 @@
       <c r="F20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="91"/>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4348,11 +4418,11 @@
       <c r="F21" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="91"/>
       <c r="J21"/>
       <c r="K21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -4387,7 +4457,7 @@
       <c r="F23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="91"/>
       <c r="J23"/>
       <c r="K23" s="41" t="s">
@@ -4409,9 +4479,9 @@
         <v>180</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="G24" s="6"/>
+        <v>509</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="91"/>
       <c r="J24"/>
       <c r="K24" s="41" t="s">
@@ -4433,9 +4503,9 @@
         <v>179</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="G25" s="6"/>
+        <v>510</v>
+      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="91"/>
       <c r="J25"/>
       <c r="K25" s="41" t="s">
@@ -4457,9 +4527,9 @@
         <v>181</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>511</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="91"/>
       <c r="J26"/>
       <c r="K26" s="41" t="s">
@@ -4481,9 +4551,9 @@
         <v>182</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>512</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="91"/>
       <c r="J27"/>
       <c r="K27" s="41" t="s">
@@ -4505,9 +4575,9 @@
         <v>184</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>513</v>
+      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="91"/>
       <c r="J28"/>
       <c r="K28" s="41" t="s">
@@ -4529,9 +4599,9 @@
         <v>183</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="G29" s="6"/>
+        <v>514</v>
+      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="91"/>
       <c r="J29"/>
       <c r="K29" s="41" t="s">
@@ -4553,9 +4623,9 @@
         <v>185</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="G30" s="6"/>
+        <v>515</v>
+      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="91"/>
       <c r="J30"/>
       <c r="K30" s="41" t="s">
@@ -4577,9 +4647,9 @@
         <v>186</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="G31" s="6"/>
+        <v>516</v>
+      </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="91"/>
       <c r="J31"/>
       <c r="K31" s="41" t="s">
@@ -4601,9 +4671,9 @@
         <v>187</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>517</v>
+      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="91"/>
       <c r="J32"/>
       <c r="K32" s="41"/>
@@ -4622,9 +4692,9 @@
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="G33" s="13"/>
+        <v>518</v>
+      </c>
+      <c r="H33" s="13"/>
       <c r="I33" s="91"/>
       <c r="J33"/>
       <c r="K33" s="43" t="s">
@@ -4689,15 +4759,15 @@
         <v>29</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F36" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I36" s="91"/>
       <c r="J36"/>
       <c r="K36" s="41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L36" s="41" t="s">
         <v>35</v>
@@ -4709,23 +4779,23 @@
     <row r="37" spans="1:13">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E37" t="s">
-        <v>481</v>
+        <v>951</v>
       </c>
       <c r="F37" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I37" s="91"/>
       <c r="J37" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -4742,7 +4812,7 @@
         <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="I38" s="91"/>
       <c r="J38"/>
@@ -4761,7 +4831,7 @@
         <v>213</v>
       </c>
       <c r="F39" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="I39" s="91"/>
       <c r="J39"/>
@@ -4778,7 +4848,7 @@
         <v>212</v>
       </c>
       <c r="F40" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="I40" s="91"/>
       <c r="J40"/>
@@ -4786,7 +4856,7 @@
         <v>261</v>
       </c>
       <c r="L40" s="41" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M40" s="42" t="s">
         <v>257</v>
@@ -4803,16 +4873,16 @@
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="G41" s="13"/>
+        <v>607</v>
+      </c>
+      <c r="H41" s="13"/>
       <c r="I41" s="91"/>
       <c r="J41"/>
       <c r="K41" s="43" t="s">
         <v>262</v>
       </c>
       <c r="L41" s="43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M41" s="44" t="s">
         <v>258</v>
@@ -4827,7 +4897,7 @@
         <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="I42" s="91"/>
       <c r="J42"/>
@@ -4844,7 +4914,7 @@
         <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I43" s="91"/>
       <c r="J43"/>
@@ -4861,7 +4931,7 @@
         <v>208</v>
       </c>
       <c r="F44" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I44" s="91"/>
       <c r="J44"/>
@@ -4878,7 +4948,7 @@
         <v>207</v>
       </c>
       <c r="F45" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="I45" s="91"/>
       <c r="J45"/>
@@ -4895,7 +4965,7 @@
         <v>206</v>
       </c>
       <c r="F46" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="I46" s="91"/>
       <c r="J46"/>
@@ -4931,7 +5001,7 @@
       <c r="F48" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
       <c r="I48" s="91"/>
       <c r="J48"/>
       <c r="K48" s="41"/>
@@ -4958,13 +5028,13 @@
         <v>43</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F50" t="s">
-        <v>515</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>444</v>
+        <v>507</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>440</v>
       </c>
       <c r="I50" s="91"/>
       <c r="J50"/>
@@ -4986,7 +5056,7 @@
       <c r="F51" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
       <c r="I51" s="91"/>
       <c r="J51"/>
       <c r="K51" s="41"/>
@@ -5007,14 +5077,14 @@
       <c r="F52" s="81" t="s">
         <v>293</v>
       </c>
-      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
       <c r="I52" s="91"/>
       <c r="J52" t="s">
         <v>293</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="41" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="M52" s="41"/>
     </row>
@@ -5155,13 +5225,13 @@
         <v>55</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F63" t="s">
-        <v>551</v>
-      </c>
-      <c r="H63" s="50" t="s">
-        <v>445</v>
+        <v>543</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>441</v>
       </c>
       <c r="I63" s="91"/>
       <c r="J63"/>
@@ -5172,7 +5242,7 @@
         <v>56</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="I64" s="91"/>
       <c r="J64"/>
@@ -5183,10 +5253,10 @@
         <v>57</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="I65" s="91"/>
       <c r="J65"/>
@@ -5197,7 +5267,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="I66" s="91"/>
       <c r="J66"/>
@@ -5208,7 +5278,7 @@
         <v>59</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="I67" s="91"/>
       <c r="J67"/>
@@ -5365,11 +5435,11 @@
         <v>215</v>
       </c>
       <c r="F78" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I78" s="91"/>
       <c r="J78" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -5381,11 +5451,11 @@
         <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I79" s="91"/>
       <c r="J79" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -5400,7 +5470,7 @@
         <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="I80" s="91"/>
       <c r="J80"/>
@@ -5414,12 +5484,12 @@
         <v>72</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F81" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="G81" s="78"/>
+        <v>498</v>
+      </c>
+      <c r="H81" s="78"/>
       <c r="I81" s="91"/>
       <c r="J81"/>
     </row>
@@ -5435,7 +5505,7 @@
         <v>146</v>
       </c>
       <c r="F82" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="I82" s="91"/>
       <c r="J82"/>
@@ -5449,12 +5519,12 @@
         <v>73</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F83" s="78" t="s">
-        <v>507</v>
-      </c>
-      <c r="G83" s="78"/>
+        <v>499</v>
+      </c>
+      <c r="H83" s="78"/>
       <c r="I83" s="91"/>
       <c r="J83"/>
     </row>
@@ -5470,7 +5540,7 @@
         <v>147</v>
       </c>
       <c r="F84" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="I84" s="91"/>
       <c r="J84"/>
@@ -5484,12 +5554,12 @@
         <v>74</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F85" s="78" t="s">
-        <v>508</v>
-      </c>
-      <c r="G85" s="78"/>
+        <v>500</v>
+      </c>
+      <c r="H85" s="78"/>
       <c r="I85" s="91"/>
       <c r="J85"/>
     </row>
@@ -5502,10 +5572,10 @@
         <v>75</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F86" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="I86" s="91"/>
       <c r="J86"/>
@@ -5522,7 +5592,7 @@
         <v>148</v>
       </c>
       <c r="F87" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I87" s="91"/>
       <c r="J87"/>
@@ -5536,12 +5606,12 @@
         <v>76</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F88" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="G88" s="78"/>
+        <v>501</v>
+      </c>
+      <c r="H88" s="78"/>
       <c r="I88" s="91"/>
       <c r="J88"/>
     </row>
@@ -5557,7 +5627,7 @@
         <v>149</v>
       </c>
       <c r="F89" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I89" s="91"/>
       <c r="J89"/>
@@ -5565,18 +5635,18 @@
     <row r="90" spans="1:10">
       <c r="A90" s="1"/>
       <c r="B90" s="79" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F90" s="78" t="s">
-        <v>510</v>
-      </c>
-      <c r="G90" s="78"/>
+        <v>502</v>
+      </c>
+      <c r="H90" s="78"/>
       <c r="I90" s="91"/>
       <c r="J90"/>
     </row>
@@ -5592,7 +5662,7 @@
         <v>150</v>
       </c>
       <c r="F91" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I91" s="91"/>
       <c r="J91"/>
@@ -5606,12 +5676,12 @@
         <v>78</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F92" s="78" t="s">
-        <v>511</v>
-      </c>
-      <c r="G92" s="78"/>
+        <v>503</v>
+      </c>
+      <c r="H92" s="78"/>
       <c r="I92" s="91"/>
       <c r="J92"/>
     </row>
@@ -5624,10 +5694,10 @@
         <v>79</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F93" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I93" s="91"/>
       <c r="J93"/>
@@ -5644,7 +5714,7 @@
         <v>151</v>
       </c>
       <c r="F94" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="I94" s="91"/>
       <c r="J94"/>
@@ -5658,12 +5728,12 @@
         <v>80</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F95" s="78" t="s">
-        <v>601</v>
-      </c>
-      <c r="G95" s="78"/>
+        <v>593</v>
+      </c>
+      <c r="H95" s="78"/>
       <c r="I95" s="91"/>
       <c r="J95"/>
     </row>
@@ -5679,7 +5749,7 @@
         <v>152</v>
       </c>
       <c r="F96" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="I96" s="91"/>
       <c r="J96"/>
@@ -5693,12 +5763,12 @@
         <v>81</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="F97" s="78" t="s">
-        <v>607</v>
-      </c>
-      <c r="G97" s="78"/>
+        <v>599</v>
+      </c>
+      <c r="H97" s="78"/>
       <c r="I97" s="91"/>
       <c r="J97"/>
     </row>
@@ -5714,7 +5784,7 @@
         <v>153</v>
       </c>
       <c r="F98" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="I98" s="91"/>
       <c r="J98"/>
@@ -5728,12 +5798,12 @@
         <v>82</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F99" s="78" t="s">
-        <v>603</v>
-      </c>
-      <c r="G99" s="78"/>
+        <v>595</v>
+      </c>
+      <c r="H99" s="78"/>
       <c r="I99" s="91"/>
       <c r="J99"/>
     </row>
@@ -5749,7 +5819,7 @@
         <v>154</v>
       </c>
       <c r="F100" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="I100" s="91"/>
       <c r="J100"/>
@@ -5757,18 +5827,18 @@
     <row r="101" spans="1:10">
       <c r="A101" s="1"/>
       <c r="B101" s="79" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F101" s="78" t="s">
-        <v>600</v>
-      </c>
-      <c r="G101" s="78"/>
+        <v>592</v>
+      </c>
+      <c r="H101" s="78"/>
       <c r="I101" s="91"/>
       <c r="J101"/>
     </row>
@@ -5781,13 +5851,13 @@
         <v>84</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E102" s="20" t="s">
         <v>296</v>
       </c>
       <c r="F102" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="I102" s="91"/>
       <c r="J102"/>
@@ -5795,19 +5865,19 @@
     <row r="103" spans="1:10">
       <c r="A103" s="1"/>
       <c r="B103" s="79" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>580</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="78" t="s">
-        <v>578</v>
-      </c>
-      <c r="G103" s="78"/>
+        <v>570</v>
+      </c>
+      <c r="H103" s="78"/>
       <c r="I103" s="91"/>
       <c r="J103"/>
     </row>
@@ -5838,7 +5908,7 @@
       </c>
       <c r="I105" s="91"/>
       <c r="J105" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -5856,11 +5926,11 @@
         <v>295</v>
       </c>
       <c r="F106" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I106" s="91"/>
       <c r="J106" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5877,7 +5947,7 @@
       <c r="F107" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
       <c r="I107" s="91"/>
       <c r="J107"/>
     </row>
@@ -5895,7 +5965,7 @@
       <c r="F108" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
       <c r="I108" s="91"/>
       <c r="J108"/>
     </row>
@@ -5908,7 +5978,7 @@
         <v>89</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E109" t="s">
         <v>280</v>
@@ -5926,8 +5996,14 @@
       <c r="D110" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="H110" t="s">
+        <v>932</v>
+      </c>
+      <c r="I110" s="19" t="s">
+        <v>931</v>
+      </c>
       <c r="J110" s="14" t="s">
-        <v>365</v>
+        <v>930</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -5942,7 +6018,7 @@
         <v>128</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5957,16 +6033,16 @@
         <v>128</v>
       </c>
       <c r="F112" s="68" t="s">
-        <v>610</v>
-      </c>
-      <c r="G112" s="68" t="s">
-        <v>633</v>
+        <v>602</v>
+      </c>
+      <c r="H112" s="68" t="s">
+        <v>617</v>
       </c>
       <c r="I112" s="86" t="s">
-        <v>491</v>
+        <v>933</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5977,11 +6053,11 @@
       <c r="D113" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H113" s="50" t="s">
-        <v>439</v>
+      <c r="G113" s="50" t="s">
+        <v>435</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5992,11 +6068,11 @@
       <c r="D114" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H114" s="50" t="s">
-        <v>440</v>
+      <c r="G114" s="53" t="s">
+        <v>436</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>450</v>
+        <v>947</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
@@ -6007,11 +6083,11 @@
       <c r="D115" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H115" s="50" t="s">
-        <v>441</v>
+      <c r="G115" s="53" t="s">
+        <v>437</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>450</v>
+        <v>946</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -6022,14 +6098,12 @@
       <c r="D116" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H116" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="J116" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="G116" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="J116" s="100"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.5">
       <c r="A117" s="1"/>
       <c r="C117" s="2" t="s">
         <v>97</v>
@@ -6037,11 +6111,14 @@
       <c r="D117" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H117" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="J117" s="14" t="s">
-        <v>362</v>
+      <c r="G117" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>949</v>
+      </c>
+      <c r="J117" s="101" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -6055,12 +6132,13 @@
       <c r="D118" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="H118" t="s">
+        <v>483</v>
+      </c>
       <c r="I118" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="J118" s="17" t="s">
-        <v>363</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="J118" s="100"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1"/>
@@ -6070,11 +6148,11 @@
       <c r="C119" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H119" s="50" t="s">
-        <v>442</v>
+      <c r="G119" s="50" t="s">
+        <v>438</v>
       </c>
       <c r="J119" s="14" t="s">
         <v>361</v>
@@ -6091,13 +6169,11 @@
       <c r="F120" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
       <c r="I120" s="86">
         <v>1</v>
       </c>
-      <c r="J120" s="17" t="s">
-        <v>483</v>
-      </c>
+      <c r="J120" s="17"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1"/>
@@ -6110,7 +6186,7 @@
       <c r="F121" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
       <c r="J121" s="14" t="s">
         <v>285</v>
       </c>
@@ -6126,7 +6202,7 @@
       <c r="F122" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
       <c r="J122" s="14" t="s">
         <v>286</v>
       </c>
@@ -6142,9 +6218,9 @@
       <c r="F123" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
       <c r="I123" s="19" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J123" s="17" t="s">
         <v>289</v>
@@ -6161,7 +6237,7 @@
       <c r="F124" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
       <c r="J124" s="14" t="s">
         <v>287</v>
       </c>
@@ -6177,7 +6253,7 @@
       <c r="F125" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
       <c r="J125" s="14" t="s">
         <v>288</v>
       </c>
@@ -6193,9 +6269,9 @@
       <c r="F126" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
       <c r="J126" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -6209,9 +6285,9 @@
       <c r="F127" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
       <c r="J127" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6225,7 +6301,7 @@
       <c r="F128" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1"/>
@@ -6238,7 +6314,7 @@
       <c r="F129" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
       <c r="J129" s="45" t="s">
         <v>360</v>
       </c>
@@ -6254,9 +6330,9 @@
       <c r="F130" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
       <c r="J130" s="46" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15" thickBot="1">
@@ -6264,11 +6340,11 @@
       <c r="C131" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D131" s="28" t="s">
+      <c r="D131" s="6" t="s">
         <v>128</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="J131" s="27"/>
     </row>
@@ -6287,16 +6363,16 @@
         <v>169</v>
       </c>
       <c r="F132" s="66" t="s">
-        <v>571</v>
-      </c>
-      <c r="G132" s="66" t="s">
-        <v>623</v>
-      </c>
-      <c r="H132" s="51" t="s">
-        <v>438</v>
+        <v>563</v>
+      </c>
+      <c r="G132" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="H132" s="66" t="s">
+        <v>939</v>
       </c>
       <c r="I132" s="86" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J132" s="15"/>
     </row>
@@ -6308,7 +6384,7 @@
       <c r="C133" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="28" t="s">
+      <c r="D133" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E133" s="6" t="s">
@@ -6317,12 +6393,12 @@
       <c r="F133" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="G133" s="63" t="s">
-        <v>624</v>
-      </c>
-      <c r="H133" s="51"/>
-      <c r="I133" s="92" t="s">
-        <v>485</v>
+      <c r="G133" s="51"/>
+      <c r="H133" s="63" t="s">
+        <v>940</v>
+      </c>
+      <c r="I133" s="86" t="s">
+        <v>484</v>
       </c>
       <c r="J133" s="19"/>
     </row>
@@ -6331,7 +6407,7 @@
       <c r="C134" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D134" s="28" t="s">
+      <c r="D134" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E134" s="6" t="s">
@@ -6340,12 +6416,12 @@
       <c r="F134" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="G134" s="63" t="s">
-        <v>625</v>
-      </c>
-      <c r="H134" s="51"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="63" t="s">
+        <v>941</v>
+      </c>
       <c r="I134" s="92" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J134" s="19"/>
     </row>
@@ -6364,14 +6440,14 @@
         <v>172</v>
       </c>
       <c r="F135" s="66" t="s">
-        <v>570</v>
-      </c>
-      <c r="G135" s="66" t="s">
-        <v>626</v>
-      </c>
-      <c r="H135" s="52"/>
+        <v>562</v>
+      </c>
+      <c r="G135" s="52"/>
+      <c r="H135" s="66" t="s">
+        <v>942</v>
+      </c>
       <c r="I135" s="86" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J135" s="15"/>
     </row>
@@ -6380,7 +6456,7 @@
       <c r="C136" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D136" s="28" t="s">
+      <c r="D136" s="6" t="s">
         <v>128</v>
       </c>
       <c r="J136" s="27"/>
@@ -6390,55 +6466,59 @@
       <c r="C137" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D137" s="28" t="s">
+      <c r="D137" s="6" t="s">
         <v>128</v>
       </c>
       <c r="J137" s="27"/>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="1"/>
-      <c r="B138" s="3">
+      <c r="B138" s="99">
         <v>87</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="97" t="s">
         <v>173</v>
       </c>
       <c r="F138" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="G138" s="82"/>
-      <c r="H138" s="51"/>
+        <v>613</v>
+      </c>
+      <c r="G138" s="51"/>
+      <c r="H138" s="82" t="s">
+        <v>943</v>
+      </c>
       <c r="I138" s="15" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J138" s="46" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="1"/>
-      <c r="B139" s="3">
+      <c r="B139" s="99">
         <v>87</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="F139" s="82" t="s">
+      <c r="F139" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="G139" s="82"/>
-      <c r="H139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="82" t="s">
+        <v>943</v>
+      </c>
       <c r="I139" s="15" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J139" s="46" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -6450,16 +6530,16 @@
         <v>128</v>
       </c>
       <c r="F140" s="65" t="s">
-        <v>562</v>
-      </c>
-      <c r="G140" s="65" t="s">
-        <v>627</v>
-      </c>
-      <c r="H140" s="50" t="s">
-        <v>436</v>
+        <v>554</v>
+      </c>
+      <c r="G140" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="H140" s="65" t="s">
+        <v>936</v>
       </c>
       <c r="I140" s="86" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -6471,14 +6551,17 @@
         <v>128</v>
       </c>
       <c r="F141" s="65" t="s">
-        <v>561</v>
-      </c>
-      <c r="G141" s="65" t="s">
-        <v>628</v>
-      </c>
-      <c r="H141" s="53"/>
+        <v>553</v>
+      </c>
+      <c r="G141" s="53"/>
+      <c r="H141" s="65" t="s">
+        <v>935</v>
+      </c>
       <c r="I141" s="86" t="s">
-        <v>486</v>
+        <v>479</v>
+      </c>
+      <c r="J141" s="94" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -6496,14 +6579,14 @@
         <v>174</v>
       </c>
       <c r="F142" s="66" t="s">
-        <v>569</v>
-      </c>
-      <c r="G142" s="66" t="s">
-        <v>629</v>
-      </c>
-      <c r="H142" s="52"/>
+        <v>561</v>
+      </c>
+      <c r="G142" s="52"/>
+      <c r="H142" s="66" t="s">
+        <v>937</v>
+      </c>
       <c r="I142" s="86" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J142" s="15"/>
     </row>
@@ -6512,11 +6595,11 @@
       <c r="C143" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D143" s="28" t="s">
+      <c r="D143" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H143" s="50" t="s">
-        <v>437</v>
+      <c r="G143" s="50" t="s">
+        <v>433</v>
       </c>
       <c r="J143" s="27"/>
     </row>
@@ -6528,36 +6611,38 @@
       <c r="C144" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D144" s="28" t="s">
+      <c r="D144" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>175</v>
       </c>
       <c r="F144" s="67" t="s">
-        <v>568</v>
-      </c>
-      <c r="G144" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="H144" s="50" t="s">
-        <v>443</v>
+        <v>560</v>
+      </c>
+      <c r="G144" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="H144" s="67" t="s">
+        <v>938</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="J144" s="27"/>
+        <v>419</v>
+      </c>
+      <c r="J144" s="94" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1"/>
       <c r="C145" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D145" s="28" t="s">
+      <c r="D145" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H145" s="50" t="s">
-        <v>437</v>
+      <c r="G145" s="50" t="s">
+        <v>433</v>
       </c>
       <c r="J145" s="27"/>
     </row>
@@ -6576,18 +6661,20 @@
         <v>176</v>
       </c>
       <c r="F146" s="66" t="s">
-        <v>567</v>
-      </c>
-      <c r="G146" s="66" t="s">
-        <v>632</v>
-      </c>
-      <c r="H146" s="50" t="s">
-        <v>437</v>
+        <v>559</v>
+      </c>
+      <c r="G146" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="H146" s="66" t="s">
+        <v>934</v>
       </c>
       <c r="I146" s="86" t="s">
-        <v>487</v>
-      </c>
-      <c r="J146" s="15"/>
+        <v>480</v>
+      </c>
+      <c r="J146" s="95" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1"/>
@@ -6598,22 +6685,22 @@
         <v>125</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E147" t="s">
         <v>294</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="H147" s="50" t="s">
-        <v>437</v>
+        <v>555</v>
+      </c>
+      <c r="G147" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="H147" s="96" t="s">
+        <v>945</v>
       </c>
       <c r="I147" s="86" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="15" thickBot="1">
@@ -6624,131 +6711,134 @@
       <c r="C148" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="D148" s="28" t="s">
+      <c r="D148" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H148" s="50" t="s">
-        <v>437</v>
+      <c r="G148" s="50" t="s">
+        <v>433</v>
       </c>
       <c r="J148" s="27" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1"/>
       <c r="C149" s="61"/>
       <c r="D149" s="28"/>
+      <c r="H149" t="s">
+        <v>950</v>
+      </c>
       <c r="J149" s="27"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1"/>
       <c r="C150" s="61" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F150" s="64" t="s">
-        <v>558</v>
-      </c>
-      <c r="G150" s="64"/>
+        <v>550</v>
+      </c>
+      <c r="H150" s="64"/>
       <c r="J150" s="27"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1"/>
       <c r="C151" s="61" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F151" s="64" t="s">
-        <v>559</v>
-      </c>
-      <c r="G151" s="64"/>
+        <v>551</v>
+      </c>
+      <c r="H151" s="64"/>
       <c r="J151" s="27"/>
       <c r="L151" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1"/>
       <c r="C152" s="61" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F152" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="G152" s="64"/>
+        <v>552</v>
+      </c>
+      <c r="H152" s="64"/>
       <c r="J152" s="27"/>
       <c r="L152" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1"/>
       <c r="C153" s="61" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F153" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="G153" s="64"/>
+        <v>549</v>
+      </c>
+      <c r="H153" s="64"/>
       <c r="J153" s="27"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1"/>
       <c r="C154" s="61"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
       <c r="J154" s="27"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1"/>
       <c r="C155" s="61" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F155" s="68" t="s">
-        <v>565</v>
-      </c>
-      <c r="G155" s="68"/>
+        <v>557</v>
+      </c>
+      <c r="H155" s="68"/>
       <c r="J155" s="27"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1"/>
       <c r="C156" s="61" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F156" s="68" t="s">
-        <v>566</v>
-      </c>
-      <c r="G156" s="68"/>
+        <v>558</v>
+      </c>
+      <c r="H156" s="68"/>
       <c r="J156" s="27"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1"/>
       <c r="C157" s="61" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F157" s="68" t="s">
-        <v>564</v>
-      </c>
-      <c r="G157" s="68"/>
+        <v>556</v>
+      </c>
+      <c r="H157" s="68"/>
       <c r="J157" s="27"/>
     </row>
     <row r="158" spans="1:12">
@@ -6762,7 +6852,7 @@
         <v>310</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6918,7 +7008,7 @@
         <v>343</v>
       </c>
       <c r="D189" s="48" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
     </row>
     <row r="190" spans="3:4" ht="15" thickBot="1">
@@ -6928,339 +7018,339 @@
     </row>
     <row r="191" spans="3:4">
       <c r="C191" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="192" spans="3:4">
       <c r="C192" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="193" spans="3:10">
       <c r="C193" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="194" spans="3:10">
       <c r="C194" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="195" spans="3:10">
       <c r="C195" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="196" spans="3:10">
       <c r="C196" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="197" spans="3:10">
       <c r="C197" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="198" spans="3:10">
       <c r="C198" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="199" spans="3:10">
       <c r="C199" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
     </row>
     <row r="200" spans="3:10">
       <c r="C200" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
     </row>
     <row r="201" spans="3:10">
       <c r="C201" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="202" spans="3:10">
       <c r="C202" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="H202" s="50" t="s">
-        <v>446</v>
+        <v>683</v>
+      </c>
+      <c r="G202" s="50" t="s">
+        <v>442</v>
       </c>
       <c r="J202" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="3:10">
       <c r="C203" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
     </row>
     <row r="204" spans="3:10">
       <c r="C204" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
     </row>
     <row r="205" spans="3:10">
       <c r="C205" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="206" spans="3:10">
       <c r="C206" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="207" spans="3:10">
       <c r="C207" s="85" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="208" spans="3:10">
       <c r="C208" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="209" spans="3:10">
       <c r="C209" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="210" spans="3:10">
       <c r="C210" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="211" spans="3:10">
       <c r="C211" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="212" spans="3:10">
       <c r="C212" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="213" spans="3:10">
       <c r="C213" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="214" spans="3:10">
       <c r="C214" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H214" s="56" t="s">
-        <v>448</v>
+        <v>443</v>
+      </c>
+      <c r="G214" s="56" t="s">
+        <v>444</v>
       </c>
       <c r="J214" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="3:10">
       <c r="C215" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="216" spans="3:10">
       <c r="C216" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="217" spans="3:10">
       <c r="C217" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="218" spans="3:10">
       <c r="C218" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
     <row r="219" spans="3:10">
       <c r="C219" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="220" spans="3:10">
       <c r="C220" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="221" spans="3:10">
       <c r="C221" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="222" spans="3:10">
       <c r="C222" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="223" spans="3:10">
       <c r="C223" s="85" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="224" spans="3:10">
       <c r="C224" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="225" spans="3:3">
       <c r="C225" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="226" spans="3:3">
       <c r="C226" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="227" spans="3:3">
       <c r="C227" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="228" spans="3:3">
       <c r="C228" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
     </row>
     <row r="229" spans="3:3">
       <c r="C229" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="230" spans="3:3">
       <c r="C230" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="231" spans="3:3">
       <c r="C231" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="232" spans="3:3">
       <c r="C232" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
     </row>
     <row r="233" spans="3:3">
       <c r="C233" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
     </row>
     <row r="234" spans="3:3">
       <c r="C234" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
     </row>
     <row r="235" spans="3:3">
       <c r="C235" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="236" spans="3:3">
       <c r="C236" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
     </row>
     <row r="237" spans="3:3">
       <c r="C237" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="238" spans="3:3">
       <c r="C238" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
     </row>
     <row r="239" spans="3:3">
       <c r="C239" s="85" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="240" spans="3:3">
       <c r="C240" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="241" spans="3:10">
       <c r="C241" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="3:10">
       <c r="C242" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="243" spans="3:10">
       <c r="C243" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="244" spans="3:10">
       <c r="C244" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="245" spans="3:10">
       <c r="C245" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="246" spans="3:10">
       <c r="C246" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="247" spans="3:10">
       <c r="C247" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="248" spans="3:10">
       <c r="C248" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="249" spans="3:10">
       <c r="C249" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="250" spans="3:10">
       <c r="C250" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="251" spans="3:10">
       <c r="C251" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="252" spans="3:10">
       <c r="C252" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="253" spans="3:10">
       <c r="C253" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="254" spans="3:10">
       <c r="C254" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="255" spans="3:10">
       <c r="C255" s="85" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="256" spans="3:10">
@@ -7268,16 +7358,16 @@
         <v>345</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E256" t="s">
-        <v>608</v>
-      </c>
-      <c r="H256" s="50" t="s">
-        <v>477</v>
+        <v>600</v>
+      </c>
+      <c r="G256" s="50" t="s">
+        <v>472</v>
       </c>
       <c r="J256" s="17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="257" spans="3:10">
@@ -7285,16 +7375,16 @@
         <v>346</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E257" t="s">
-        <v>608</v>
-      </c>
-      <c r="H257" s="50" t="s">
-        <v>477</v>
+        <v>600</v>
+      </c>
+      <c r="G257" s="50" t="s">
+        <v>472</v>
       </c>
       <c r="J257" s="17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="258" spans="3:10">
@@ -7332,7 +7422,7 @@
         <v>283</v>
       </c>
       <c r="J264" s="14" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="265" spans="3:10">
@@ -7340,7 +7430,7 @@
         <v>350</v>
       </c>
       <c r="J265" s="14" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
     </row>
     <row r="266" spans="3:10">
@@ -7375,106 +7465,106 @@
     </row>
     <row r="272" spans="3:10">
       <c r="C272" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="G272" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="J272" s="14" t="s">
         <v>471</v>
-      </c>
-      <c r="H272" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="J272" s="14" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="273" spans="3:10">
       <c r="C273" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="H273" s="50" t="s">
-        <v>475</v>
+        <v>467</v>
+      </c>
+      <c r="G273" s="50" t="s">
+        <v>470</v>
       </c>
       <c r="J273" s="14" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="274" spans="3:10">
       <c r="C274" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="H274" s="50" t="s">
-        <v>475</v>
+        <v>468</v>
+      </c>
+      <c r="G274" s="50" t="s">
+        <v>470</v>
       </c>
       <c r="J274" s="14" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="275" spans="3:10">
       <c r="C275" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="H275" s="50" t="s">
-        <v>475</v>
+        <v>469</v>
+      </c>
+      <c r="G275" s="50" t="s">
+        <v>470</v>
       </c>
       <c r="J275" s="14" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="276" spans="3:10">
       <c r="C276" s="47" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="277" spans="3:10">
       <c r="C277" s="47" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="278" spans="3:10">
       <c r="C278" s="47" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="279" spans="3:10">
       <c r="C279" s="47" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="280" spans="3:10">
       <c r="C280" s="47" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="281" spans="3:10">
       <c r="C281" s="47" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="282" spans="3:10">
       <c r="C282" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="283" spans="3:10">
       <c r="C283" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="284" spans="3:10">
       <c r="C284" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="285" spans="3:10">
       <c r="C285" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="286" spans="3:10">
       <c r="C286" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="287" spans="3:10">
       <c r="C287" s="85" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="288" spans="3:10">
@@ -7559,229 +7649,229 @@
     </row>
     <row r="304" spans="3:10">
       <c r="C304" s="2" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="J304" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="305" spans="3:10">
       <c r="C305" s="2" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="J305" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="306" spans="3:10">
       <c r="C306" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="307" spans="3:10">
       <c r="C307" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="308" spans="3:10">
       <c r="C308" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="309" spans="3:10">
       <c r="C309" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
     </row>
     <row r="310" spans="3:10">
       <c r="C310" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="311" spans="3:10">
       <c r="C311" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="312" spans="3:10">
       <c r="C312" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="313" spans="3:10">
       <c r="C313" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="314" spans="3:10">
       <c r="C314" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="315" spans="3:10">
       <c r="C315" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="316" spans="3:10">
       <c r="C316" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="317" spans="3:10">
       <c r="C317" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="318" spans="3:10">
       <c r="C318" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="319" spans="3:10">
       <c r="C319" s="85" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="320" spans="3:10">
       <c r="C320" s="47" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="321" spans="2:7">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="321" spans="2:8">
       <c r="C321" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="322" spans="2:7">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="322" spans="2:8">
       <c r="C322" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="323" spans="2:7">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="323" spans="2:8">
       <c r="C323" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="324" spans="2:7">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="324" spans="2:8">
       <c r="C324" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="325" spans="2:7">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="325" spans="2:8">
       <c r="C325" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="326" spans="2:7">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="326" spans="2:8">
       <c r="C326" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="327" spans="2:7">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="327" spans="2:8">
       <c r="C327" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="328" spans="2:7">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="328" spans="2:8">
       <c r="C328" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="329" spans="2:7">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="329" spans="2:8">
       <c r="C329" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="330" spans="2:7">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="330" spans="2:8">
       <c r="C330" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="331" spans="2:7">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="331" spans="2:8">
       <c r="C331" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="332" spans="2:7">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="332" spans="2:8">
       <c r="C332" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="333" spans="2:7">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="333" spans="2:8">
       <c r="C333" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="334" spans="2:7">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="334" spans="2:8">
       <c r="C334" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="335" spans="2:7">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="335" spans="2:8">
       <c r="C335" s="85" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="336" spans="2:7">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="336" spans="2:8">
       <c r="B336" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D336" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F336" s="78" t="s">
-        <v>428</v>
-      </c>
-      <c r="G336" s="78"/>
+        <v>424</v>
+      </c>
+      <c r="H336" s="78"/>
     </row>
     <row r="337" spans="2:10">
       <c r="C337" s="47" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="338" spans="2:10">
       <c r="C338" s="47" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="339" spans="2:10">
       <c r="C339" s="47" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="340" spans="2:10">
       <c r="C340" s="47" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="341" spans="2:10">
       <c r="C341" s="47" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="342" spans="2:10">
       <c r="C342" s="47" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="343" spans="2:10">
       <c r="C343" s="47" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="344" spans="2:10">
       <c r="C344" s="47" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="345" spans="2:10">
@@ -7789,52 +7879,52 @@
         <v>241</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D345" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F345" s="78" t="s">
-        <v>553</v>
-      </c>
-      <c r="G345" s="78"/>
+        <v>545</v>
+      </c>
+      <c r="H345" s="78"/>
     </row>
     <row r="346" spans="2:10">
       <c r="C346" s="47" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="347" spans="2:10">
       <c r="C347" s="47" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="348" spans="2:10">
       <c r="B348" s="3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C348" s="47" t="s">
         <v>223</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F348" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="349" spans="2:10">
       <c r="B349" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D349" s="18" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F349" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J349" s="14" t="s">
         <v>357</v>
@@ -7842,12 +7932,12 @@
     </row>
     <row r="350" spans="2:10">
       <c r="C350" s="47" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="351" spans="2:10" ht="15" thickBot="1">
       <c r="C351" s="58" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="352" spans="2:10">
@@ -7855,148 +7945,148 @@
         <v>271</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D352" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F352" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="G352" s="78"/>
-    </row>
-    <row r="353" spans="2:7">
+        <v>425</v>
+      </c>
+      <c r="H352" s="78"/>
+    </row>
+    <row r="353" spans="2:8">
       <c r="C353" s="47" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D353"/>
       <c r="F353" s="78"/>
-      <c r="G353" s="78"/>
-    </row>
-    <row r="354" spans="2:7">
+      <c r="H353" s="78"/>
+    </row>
+    <row r="354" spans="2:8">
       <c r="B354" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D354" t="s">
         <v>254</v>
       </c>
       <c r="F354" s="78" t="s">
-        <v>430</v>
-      </c>
-      <c r="G354" s="78"/>
-    </row>
-    <row r="355" spans="2:7">
+        <v>426</v>
+      </c>
+      <c r="H354" s="78"/>
+    </row>
+    <row r="355" spans="2:8">
       <c r="C355" s="47" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D355"/>
       <c r="F355" s="78"/>
-      <c r="G355" s="78"/>
-    </row>
-    <row r="356" spans="2:7">
+      <c r="H355" s="78"/>
+    </row>
+    <row r="356" spans="2:8">
       <c r="B356" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D356" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F356" s="78" t="s">
-        <v>431</v>
-      </c>
-      <c r="G356" s="78"/>
-    </row>
-    <row r="357" spans="2:7">
+        <v>427</v>
+      </c>
+      <c r="H356" s="78"/>
+    </row>
+    <row r="357" spans="2:8">
       <c r="C357" s="47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="358" spans="2:8">
+      <c r="C358" s="47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="359" spans="2:8">
+      <c r="C359" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="360" spans="2:8">
+      <c r="C360" s="47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="361" spans="2:8">
+      <c r="C361" s="47" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="358" spans="2:7">
-      <c r="C358" s="47" t="s">
+    <row r="362" spans="2:8">
+      <c r="C362" s="47" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="359" spans="2:7">
-      <c r="C359" s="47" t="s">
+    <row r="363" spans="2:8">
+      <c r="C363" s="47" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="2:7">
-      <c r="C360" s="47" t="s">
+    <row r="364" spans="2:8">
+      <c r="C364" s="47" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="361" spans="2:7">
-      <c r="C361" s="47" t="s">
+    <row r="365" spans="2:8">
+      <c r="C365" s="47" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="362" spans="2:7">
-      <c r="C362" s="47" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="363" spans="2:7">
-      <c r="C363" s="47" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="364" spans="2:7">
-      <c r="C364" s="47" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="365" spans="2:7">
-      <c r="C365" s="47" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="366" spans="2:7">
+    <row r="366" spans="2:8">
       <c r="B366" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D366" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F366" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="G366" s="78"/>
-    </row>
-    <row r="367" spans="2:7" ht="15" thickBot="1">
+        <v>422</v>
+      </c>
+      <c r="H366" s="78"/>
+    </row>
+    <row r="367" spans="2:8" ht="15" thickBot="1">
       <c r="C367" s="58" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D367"/>
       <c r="F367" s="78"/>
-      <c r="G367" s="78"/>
-    </row>
-    <row r="368" spans="2:7">
+      <c r="H367" s="78"/>
+    </row>
+    <row r="368" spans="2:8">
       <c r="B368" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D368" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F368" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="G368" s="78"/>
+        <v>423</v>
+      </c>
+      <c r="H368" s="78"/>
     </row>
     <row r="369" spans="2:10">
       <c r="C369" s="47" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="370" spans="2:10">
@@ -8007,8 +8097,8 @@
       <c r="D370" s="73"/>
       <c r="E370" s="74"/>
       <c r="F370" s="74"/>
-      <c r="G370" s="74"/>
-      <c r="H370" s="75"/>
+      <c r="G370" s="75"/>
+      <c r="H370" s="74"/>
       <c r="I370" s="93"/>
     </row>
     <row r="371" spans="2:10">
@@ -8019,18 +8109,18 @@
       <c r="D371" s="73"/>
       <c r="E371" s="74"/>
       <c r="F371" s="74"/>
-      <c r="G371" s="74"/>
-      <c r="H371" s="75"/>
+      <c r="G371" s="75"/>
+      <c r="H371" s="74"/>
       <c r="I371" s="93"/>
     </row>
     <row r="372" spans="2:10">
       <c r="C372" s="47" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="373" spans="2:10">
       <c r="B373" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>221</v>
@@ -8039,97 +8129,97 @@
         <v>220</v>
       </c>
       <c r="F373" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="J373" s="76" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="374" spans="2:10">
       <c r="B374" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F374" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="J374" s="76" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="375" spans="2:10">
       <c r="C375" s="47" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="376" spans="2:10">
       <c r="C376" s="47" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="377" spans="2:10">
       <c r="C377" s="47" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="378" spans="2:10">
       <c r="C378" s="47" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="379" spans="2:10">
       <c r="C379" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="380" spans="2:10">
       <c r="C380" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="381" spans="2:10">
       <c r="C381" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="382" spans="2:10">
       <c r="C382" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="383" spans="2:10" ht="15" thickBot="1">
       <c r="C383" s="59" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="2:10">
       <c r="C384" s="47" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="385" spans="2:10">
       <c r="C385" s="47" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="386" spans="2:10">
       <c r="C386" s="47" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="387" spans="2:10">
       <c r="C387" s="47" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="388" spans="2:10">
       <c r="C388" s="47" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="389" spans="2:10">
@@ -8137,50 +8227,50 @@
         <v>90</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D389" s="18" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F389" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="J389" s="14" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="390" spans="2:10">
       <c r="C390" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D390" s="60"/>
     </row>
     <row r="391" spans="2:10">
       <c r="C391" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D391" s="60"/>
     </row>
     <row r="392" spans="2:10">
       <c r="C392" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D392" s="5" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F392" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="393" spans="2:10">
       <c r="C393" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D393" s="60"/>
     </row>
     <row r="394" spans="2:10">
       <c r="C394" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D394" s="60"/>
     </row>
@@ -8189,41 +8279,41 @@
         <v>25</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D395" s="60" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F395" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="396" spans="2:10">
       <c r="C396" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D396" s="60"/>
     </row>
     <row r="397" spans="2:10">
       <c r="C397" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D397" s="5" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F397" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="398" spans="2:10">
       <c r="C398" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D398" s="60"/>
     </row>
     <row r="399" spans="2:10">
       <c r="C399" s="77" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D399" s="60"/>
     </row>
@@ -8232,28 +8322,28 @@
         <v>28</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F400" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="401" spans="2:6">
       <c r="C401" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="402" spans="2:6">
       <c r="C402" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="403" spans="2:6">
       <c r="C403" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="404" spans="2:6">
@@ -8269,27 +8359,27 @@
     </row>
     <row r="405" spans="2:6">
       <c r="C405" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="406" spans="2:6">
       <c r="C406" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="407" spans="2:6">
       <c r="C407" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="408" spans="2:6">
       <c r="C408" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="409" spans="2:6">
       <c r="C409" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="410" spans="2:6">
@@ -8308,10 +8398,10 @@
         <v>191</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F411" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="412" spans="2:6">
@@ -8322,10 +8412,10 @@
         <v>217</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F412" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="413" spans="2:6">
@@ -8336,115 +8426,115 @@
         <v>218</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F413" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="414" spans="2:6">
       <c r="C414" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="415" spans="2:6">
       <c r="C415" s="77" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="416" spans="2:6">
       <c r="C416" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="417" spans="3:3">
       <c r="C417" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="418" spans="3:3">
       <c r="C418" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
     </row>
     <row r="419" spans="3:3">
       <c r="C419" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="420" spans="3:3">
       <c r="C420" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
     </row>
     <row r="421" spans="3:3">
       <c r="C421" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
     </row>
     <row r="422" spans="3:3">
       <c r="C422" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
     </row>
     <row r="423" spans="3:3">
       <c r="C423" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="424" spans="3:3">
       <c r="C424" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="425" spans="3:3">
       <c r="C425" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
     </row>
     <row r="426" spans="3:3">
       <c r="C426" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
     </row>
     <row r="427" spans="3:3">
       <c r="C427" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
     </row>
     <row r="428" spans="3:3">
       <c r="C428" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
     </row>
     <row r="429" spans="3:3">
       <c r="C429" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
     </row>
     <row r="430" spans="3:3">
       <c r="C430" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="431" spans="3:3">
       <c r="C431" s="85" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="432" spans="3:3">
       <c r="C432" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
     </row>
     <row r="433" spans="2:10">
       <c r="C433" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="434" spans="2:10">
       <c r="C434" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
     </row>
     <row r="435" spans="2:10">
@@ -8458,37 +8548,37 @@
         <v>358</v>
       </c>
       <c r="J435" s="14" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="2:10">
       <c r="C436" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
     </row>
     <row r="437" spans="2:10">
       <c r="C437" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="438" spans="2:10">
       <c r="C438" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="439" spans="2:10">
       <c r="C439" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
     </row>
     <row r="440" spans="2:10">
       <c r="C440" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
     </row>
     <row r="441" spans="2:10">
       <c r="C441" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="442" spans="2:10">
@@ -8496,7 +8586,7 @@
     </row>
     <row r="443" spans="2:10">
       <c r="C443" s="2" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="448" spans="2:10">
@@ -8515,8 +8605,8 @@
     <hyperlink ref="C456" r:id="rId1"/>
     <hyperlink ref="A1" r:id="rId2"/>
     <hyperlink ref="F1" r:id="rId3"/>
-    <hyperlink ref="H2" r:id="rId4" display="scancode.doc"/>
-    <hyperlink ref="N1" r:id="rId5"/>
+    <hyperlink ref="N1" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId5" display="scancode.doc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -8551,7 +8641,7 @@
         <v>SC01</v>
       </c>
       <c r="D1" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8567,7 +8657,7 @@
         <v>SC02</v>
       </c>
       <c r="D2" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8583,7 +8673,7 @@
         <v>SC03</v>
       </c>
       <c r="D3" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8599,7 +8689,7 @@
         <v>SC04</v>
       </c>
       <c r="D4" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8615,7 +8705,7 @@
         <v>SC05</v>
       </c>
       <c r="D5" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8631,7 +8721,7 @@
         <v>SC06</v>
       </c>
       <c r="D6" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8647,7 +8737,7 @@
         <v>SC07</v>
       </c>
       <c r="D7" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8663,7 +8753,7 @@
         <v>SC08</v>
       </c>
       <c r="D8" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8679,7 +8769,7 @@
         <v>SC09</v>
       </c>
       <c r="D9" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8695,7 +8785,7 @@
         <v>SC0A</v>
       </c>
       <c r="D10" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8711,7 +8801,7 @@
         <v>SC0B</v>
       </c>
       <c r="D11" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8727,7 +8817,7 @@
         <v>SC0C</v>
       </c>
       <c r="D12" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8743,7 +8833,7 @@
         <v>SC0D</v>
       </c>
       <c r="D13" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8759,7 +8849,7 @@
         <v>SC0E</v>
       </c>
       <c r="D14" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8775,7 +8865,7 @@
         <v>SC0F</v>
       </c>
       <c r="D15" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9879,7 +9969,7 @@
         <v>SC054</v>
       </c>
       <c r="D84" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -10583,7 +10673,7 @@
         <v>SC080</v>
       </c>
       <c r="D128" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -10599,7 +10689,7 @@
         <v>SC081</v>
       </c>
       <c r="D129" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -10615,7 +10705,7 @@
         <v>SC082</v>
       </c>
       <c r="D130" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -10631,7 +10721,7 @@
         <v>SC083</v>
       </c>
       <c r="D131" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10647,7 +10737,7 @@
         <v>SC084</v>
       </c>
       <c r="D132" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -10663,7 +10753,7 @@
         <v>SC085</v>
       </c>
       <c r="D133" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -10679,7 +10769,7 @@
         <v>SC086</v>
       </c>
       <c r="D134" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -10695,7 +10785,7 @@
         <v>SC087</v>
       </c>
       <c r="D135" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -10711,7 +10801,7 @@
         <v>SC088</v>
       </c>
       <c r="D136" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -10727,7 +10817,7 @@
         <v>SC089</v>
       </c>
       <c r="D137" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -10743,7 +10833,7 @@
         <v>SC08A</v>
       </c>
       <c r="D138" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -10759,7 +10849,7 @@
         <v>SC08B</v>
       </c>
       <c r="D139" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -10775,7 +10865,7 @@
         <v>SC08C</v>
       </c>
       <c r="D140" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -10791,7 +10881,7 @@
         <v>SC08D</v>
       </c>
       <c r="D141" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -10807,7 +10897,7 @@
         <v>SC08E</v>
       </c>
       <c r="D142" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -10823,7 +10913,7 @@
         <v>SC08F</v>
       </c>
       <c r="D143" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -10839,7 +10929,7 @@
         <v>SC090</v>
       </c>
       <c r="D144" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -10855,7 +10945,7 @@
         <v>SC091</v>
       </c>
       <c r="D145" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -10871,7 +10961,7 @@
         <v>SC092</v>
       </c>
       <c r="D146" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -10887,7 +10977,7 @@
         <v>SC093</v>
       </c>
       <c r="D147" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -10903,7 +10993,7 @@
         <v>SC094</v>
       </c>
       <c r="D148" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -10919,7 +11009,7 @@
         <v>SC095</v>
       </c>
       <c r="D149" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -10935,7 +11025,7 @@
         <v>SC096</v>
       </c>
       <c r="D150" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -10951,7 +11041,7 @@
         <v>SC097</v>
       </c>
       <c r="D151" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -10967,7 +11057,7 @@
         <v>SC098</v>
       </c>
       <c r="D152" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -10983,7 +11073,7 @@
         <v>SC099</v>
       </c>
       <c r="D153" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -10999,7 +11089,7 @@
         <v>SC09A</v>
       </c>
       <c r="D154" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -11015,7 +11105,7 @@
         <v>SC09B</v>
       </c>
       <c r="D155" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11031,7 +11121,7 @@
         <v>SC09C</v>
       </c>
       <c r="D156" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -11047,7 +11137,7 @@
         <v>SC09D</v>
       </c>
       <c r="D157" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -11063,7 +11153,7 @@
         <v>SC09E</v>
       </c>
       <c r="D158" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -11079,7 +11169,7 @@
         <v>SC09F</v>
       </c>
       <c r="D159" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -11095,7 +11185,7 @@
         <v>SC0A0</v>
       </c>
       <c r="D160" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -11111,7 +11201,7 @@
         <v>SC0A1</v>
       </c>
       <c r="D161" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -11127,7 +11217,7 @@
         <v>SC0A2</v>
       </c>
       <c r="D162" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -11143,7 +11233,7 @@
         <v>SC0A3</v>
       </c>
       <c r="D163" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -11159,7 +11249,7 @@
         <v>SC0A4</v>
       </c>
       <c r="D164" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -11175,7 +11265,7 @@
         <v>SC0A5</v>
       </c>
       <c r="D165" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -11191,7 +11281,7 @@
         <v>SC0A6</v>
       </c>
       <c r="D166" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -11207,7 +11297,7 @@
         <v>SC0A7</v>
       </c>
       <c r="D167" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -11223,7 +11313,7 @@
         <v>SC0A8</v>
       </c>
       <c r="D168" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -11239,7 +11329,7 @@
         <v>SC0A9</v>
       </c>
       <c r="D169" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -11255,7 +11345,7 @@
         <v>SC0AA</v>
       </c>
       <c r="D170" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -11271,7 +11361,7 @@
         <v>SC0AB</v>
       </c>
       <c r="D171" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -11287,7 +11377,7 @@
         <v>SC0AC</v>
       </c>
       <c r="D172" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -11303,7 +11393,7 @@
         <v>SC0AD</v>
       </c>
       <c r="D173" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -11319,7 +11409,7 @@
         <v>SC0AE</v>
       </c>
       <c r="D174" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -11335,7 +11425,7 @@
         <v>SC0AF</v>
       </c>
       <c r="D175" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -11351,7 +11441,7 @@
         <v>SC0B0</v>
       </c>
       <c r="D176" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -11367,7 +11457,7 @@
         <v>SC0B1</v>
       </c>
       <c r="D177" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -11383,7 +11473,7 @@
         <v>SC0B2</v>
       </c>
       <c r="D178" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -11399,7 +11489,7 @@
         <v>SC0B3</v>
       </c>
       <c r="D179" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -11415,7 +11505,7 @@
         <v>SC0B4</v>
       </c>
       <c r="D180" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -11431,7 +11521,7 @@
         <v>SC0B5</v>
       </c>
       <c r="D181" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -11447,7 +11537,7 @@
         <v>SC0B6</v>
       </c>
       <c r="D182" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -11463,7 +11553,7 @@
         <v>SC0B7</v>
       </c>
       <c r="D183" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -11479,7 +11569,7 @@
         <v>SC0B8</v>
       </c>
       <c r="D184" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -11495,7 +11585,7 @@
         <v>SC0B9</v>
       </c>
       <c r="D185" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -11511,7 +11601,7 @@
         <v>SC0BA</v>
       </c>
       <c r="D186" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -11527,7 +11617,7 @@
         <v>SC0BB</v>
       </c>
       <c r="D187" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -11543,7 +11633,7 @@
         <v>SC0BC</v>
       </c>
       <c r="D188" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -11559,7 +11649,7 @@
         <v>SC0BD</v>
       </c>
       <c r="D189" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -11575,7 +11665,7 @@
         <v>SC0BE</v>
       </c>
       <c r="D190" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -11591,7 +11681,7 @@
         <v>SC0BF</v>
       </c>
       <c r="D191" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -11607,7 +11697,7 @@
         <v>SC0C0</v>
       </c>
       <c r="D192" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -11623,7 +11713,7 @@
         <v>SC0C1</v>
       </c>
       <c r="D193" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -11639,7 +11729,7 @@
         <v>SC0C2</v>
       </c>
       <c r="D194" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -11655,7 +11745,7 @@
         <v>SC0C3</v>
       </c>
       <c r="D195" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -11671,7 +11761,7 @@
         <v>SC0C4</v>
       </c>
       <c r="D196" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -11687,7 +11777,7 @@
         <v>SC0C5</v>
       </c>
       <c r="D197" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -11703,7 +11793,7 @@
         <v>SC0C6</v>
       </c>
       <c r="D198" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -11719,7 +11809,7 @@
         <v>SC0C7</v>
       </c>
       <c r="D199" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -11735,7 +11825,7 @@
         <v>SC0C8</v>
       </c>
       <c r="D200" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -11751,7 +11841,7 @@
         <v>SC0C9</v>
       </c>
       <c r="D201" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -11767,7 +11857,7 @@
         <v>SC0CA</v>
       </c>
       <c r="D202" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -11783,7 +11873,7 @@
         <v>SC0CB</v>
       </c>
       <c r="D203" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -11799,7 +11889,7 @@
         <v>SC0CC</v>
       </c>
       <c r="D204" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -11815,7 +11905,7 @@
         <v>SC0CD</v>
       </c>
       <c r="D205" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -11831,7 +11921,7 @@
         <v>SC0CE</v>
       </c>
       <c r="D206" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -11847,7 +11937,7 @@
         <v>SC0CF</v>
       </c>
       <c r="D207" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -11863,7 +11953,7 @@
         <v>SC0D0</v>
       </c>
       <c r="D208" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -11879,7 +11969,7 @@
         <v>SC0D1</v>
       </c>
       <c r="D209" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -11895,7 +11985,7 @@
         <v>SC0D2</v>
       </c>
       <c r="D210" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -11911,7 +12001,7 @@
         <v>SC0D3</v>
       </c>
       <c r="D211" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -11927,7 +12017,7 @@
         <v>SC0D4</v>
       </c>
       <c r="D212" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -11943,7 +12033,7 @@
         <v>SC0D5</v>
       </c>
       <c r="D213" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -11959,7 +12049,7 @@
         <v>SC0D6</v>
       </c>
       <c r="D214" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -11975,7 +12065,7 @@
         <v>SC0D7</v>
       </c>
       <c r="D215" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -11991,7 +12081,7 @@
         <v>SC0D8</v>
       </c>
       <c r="D216" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -12007,7 +12097,7 @@
         <v>SC0D9</v>
       </c>
       <c r="D217" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -12023,7 +12113,7 @@
         <v>SC0DA</v>
       </c>
       <c r="D218" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -12039,7 +12129,7 @@
         <v>SC0DB</v>
       </c>
       <c r="D219" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -12055,7 +12145,7 @@
         <v>SC0DC</v>
       </c>
       <c r="D220" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -12071,7 +12161,7 @@
         <v>SC0DD</v>
       </c>
       <c r="D221" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -12087,7 +12177,7 @@
         <v>SC0DE</v>
       </c>
       <c r="D222" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -12103,7 +12193,7 @@
         <v>SC0DF</v>
       </c>
       <c r="D223" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -12375,7 +12465,7 @@
         <v>SC0F0</v>
       </c>
       <c r="D240" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -12391,7 +12481,7 @@
         <v>SC0F1</v>
       </c>
       <c r="D241" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -12407,7 +12497,7 @@
         <v>SC0F2</v>
       </c>
       <c r="D242" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -12423,7 +12513,7 @@
         <v>SC0F3</v>
       </c>
       <c r="D243" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -12439,7 +12529,7 @@
         <v>SC0F4</v>
       </c>
       <c r="D244" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -12455,7 +12545,7 @@
         <v>SC0F5</v>
       </c>
       <c r="D245" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -12471,7 +12561,7 @@
         <v>SC0F6</v>
       </c>
       <c r="D246" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -12487,7 +12577,7 @@
         <v>SC0F7</v>
       </c>
       <c r="D247" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -12503,7 +12593,7 @@
         <v>SC0F8</v>
       </c>
       <c r="D248" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -12519,7 +12609,7 @@
         <v>SC0F9</v>
       </c>
       <c r="D249" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -12535,7 +12625,7 @@
         <v>SC0FA</v>
       </c>
       <c r="D250" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -12551,7 +12641,7 @@
         <v>SC0FB</v>
       </c>
       <c r="D251" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -12567,7 +12657,7 @@
         <v>SC0FC</v>
       </c>
       <c r="D252" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -12583,7 +12673,7 @@
         <v>SC0FD</v>
       </c>
       <c r="D253" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -12599,7 +12689,7 @@
         <v>SC0FE</v>
       </c>
       <c r="D254" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -12615,7 +12705,7 @@
         <v>SC0FF</v>
       </c>
       <c r="D255" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -12631,7 +12721,7 @@
         <v>SC100</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -12647,7 +12737,7 @@
         <v>SC101</v>
       </c>
       <c r="D257" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -12663,7 +12753,7 @@
         <v>SC102</v>
       </c>
       <c r="D258" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -12679,7 +12769,7 @@
         <v>SC103</v>
       </c>
       <c r="D259" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -12695,7 +12785,7 @@
         <v>SC104</v>
       </c>
       <c r="D260" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -12711,7 +12801,7 @@
         <v>SC105</v>
       </c>
       <c r="D261" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -12727,7 +12817,7 @@
         <v>SC106</v>
       </c>
       <c r="D262" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -12743,7 +12833,7 @@
         <v>SC107</v>
       </c>
       <c r="D263" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -12759,7 +12849,7 @@
         <v>SC108</v>
       </c>
       <c r="D264" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -12775,7 +12865,7 @@
         <v>SC109</v>
       </c>
       <c r="D265" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -12791,7 +12881,7 @@
         <v>SC10A</v>
       </c>
       <c r="D266" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -12807,7 +12897,7 @@
         <v>SC10B</v>
       </c>
       <c r="D267" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -12823,7 +12913,7 @@
         <v>SC10C</v>
       </c>
       <c r="D268" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -12839,7 +12929,7 @@
         <v>SC10D</v>
       </c>
       <c r="D269" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -12855,7 +12945,7 @@
         <v>SC10E</v>
       </c>
       <c r="D270" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -12871,7 +12961,7 @@
         <v>SC10F</v>
       </c>
       <c r="D271" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -12887,7 +12977,7 @@
         <v>SC110</v>
       </c>
       <c r="D272" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -12903,7 +12993,7 @@
         <v>SC111</v>
       </c>
       <c r="D273" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -12919,7 +13009,7 @@
         <v>SC112</v>
       </c>
       <c r="D274" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -12935,7 +13025,7 @@
         <v>SC113</v>
       </c>
       <c r="D275" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -12951,7 +13041,7 @@
         <v>SC114</v>
       </c>
       <c r="D276" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -12967,7 +13057,7 @@
         <v>SC115</v>
       </c>
       <c r="D277" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -12983,7 +13073,7 @@
         <v>SC116</v>
       </c>
       <c r="D278" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -12999,7 +13089,7 @@
         <v>SC117</v>
       </c>
       <c r="D279" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -13015,7 +13105,7 @@
         <v>SC118</v>
       </c>
       <c r="D280" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -13031,7 +13121,7 @@
         <v>SC119</v>
       </c>
       <c r="D281" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -13047,7 +13137,7 @@
         <v>SC11A</v>
       </c>
       <c r="D282" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -13063,7 +13153,7 @@
         <v>SC11B</v>
       </c>
       <c r="D283" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -13111,7 +13201,7 @@
         <v>SC11E</v>
       </c>
       <c r="D286" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -13127,7 +13217,7 @@
         <v>SC11F</v>
       </c>
       <c r="D287" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -13143,7 +13233,7 @@
         <v>SC120</v>
       </c>
       <c r="D288" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -13159,7 +13249,7 @@
         <v>SC121</v>
       </c>
       <c r="D289" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -13175,7 +13265,7 @@
         <v>SC122</v>
       </c>
       <c r="D290" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -13191,7 +13281,7 @@
         <v>SC123</v>
       </c>
       <c r="D291" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -13207,7 +13297,7 @@
         <v>SC124</v>
       </c>
       <c r="D292" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -13223,7 +13313,7 @@
         <v>SC125</v>
       </c>
       <c r="D293" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -13239,7 +13329,7 @@
         <v>SC126</v>
       </c>
       <c r="D294" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -13255,7 +13345,7 @@
         <v>SC127</v>
       </c>
       <c r="D295" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -13271,7 +13361,7 @@
         <v>SC128</v>
       </c>
       <c r="D296" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -13287,7 +13377,7 @@
         <v>SC129</v>
       </c>
       <c r="D297" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -13303,7 +13393,7 @@
         <v>SC12A</v>
       </c>
       <c r="D298" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -13319,7 +13409,7 @@
         <v>SC12B</v>
       </c>
       <c r="D299" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -13335,7 +13425,7 @@
         <v>SC12C</v>
       </c>
       <c r="D300" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -13351,7 +13441,7 @@
         <v>SC12D</v>
       </c>
       <c r="D301" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -13367,7 +13457,7 @@
         <v>SC12E</v>
       </c>
       <c r="D302" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -13383,7 +13473,7 @@
         <v>SC12F</v>
       </c>
       <c r="D303" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -13399,7 +13489,7 @@
         <v>SC130</v>
       </c>
       <c r="D304" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -13415,7 +13505,7 @@
         <v>SC131</v>
       </c>
       <c r="D305" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -13463,7 +13553,7 @@
         <v>SC134</v>
       </c>
       <c r="D308" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -13511,7 +13601,7 @@
         <v>SC137</v>
       </c>
       <c r="D311" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -13527,7 +13617,7 @@
         <v>SC138</v>
       </c>
       <c r="D312" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -13543,7 +13633,7 @@
         <v>SC139</v>
       </c>
       <c r="D313" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -13559,7 +13649,7 @@
         <v>SC13A</v>
       </c>
       <c r="D314" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -13575,7 +13665,7 @@
         <v>SC13B</v>
       </c>
       <c r="D315" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -13591,7 +13681,7 @@
         <v>SC13C</v>
       </c>
       <c r="D316" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -13607,7 +13697,7 @@
         <v>SC13D</v>
       </c>
       <c r="D317" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -13623,7 +13713,7 @@
         <v>SC13E</v>
       </c>
       <c r="D318" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -13639,7 +13729,7 @@
         <v>SC13F</v>
       </c>
       <c r="D319" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -13655,7 +13745,7 @@
         <v>SC140</v>
       </c>
       <c r="D320" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -13671,7 +13761,7 @@
         <v>SC141</v>
       </c>
       <c r="D321" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -13687,7 +13777,7 @@
         <v>SC142</v>
       </c>
       <c r="D322" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -13703,7 +13793,7 @@
         <v>SC143</v>
       </c>
       <c r="D323" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -13719,7 +13809,7 @@
         <v>SC144</v>
       </c>
       <c r="D324" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -13735,7 +13825,7 @@
         <v>SC145</v>
       </c>
       <c r="D325" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -13751,7 +13841,7 @@
         <v>SC146</v>
       </c>
       <c r="D326" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -13767,7 +13857,7 @@
         <v>SC147</v>
       </c>
       <c r="D327" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -13783,7 +13873,7 @@
         <v>SC148</v>
       </c>
       <c r="D328" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -13799,7 +13889,7 @@
         <v>SC149</v>
       </c>
       <c r="D329" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -13815,7 +13905,7 @@
         <v>SC14A</v>
       </c>
       <c r="D330" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -13831,7 +13921,7 @@
         <v>SC14B</v>
       </c>
       <c r="D331" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -13847,7 +13937,7 @@
         <v>SC14C</v>
       </c>
       <c r="D332" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -13863,7 +13953,7 @@
         <v>SC14D</v>
       </c>
       <c r="D333" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -13879,7 +13969,7 @@
         <v>SC14E</v>
       </c>
       <c r="D334" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -13895,7 +13985,7 @@
         <v>SC14F</v>
       </c>
       <c r="D335" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -13911,7 +14001,7 @@
         <v>SC150</v>
       </c>
       <c r="D336" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -13927,7 +14017,7 @@
         <v>SC151</v>
       </c>
       <c r="D337" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -13943,7 +14033,7 @@
         <v>SC152</v>
       </c>
       <c r="D338" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -13959,7 +14049,7 @@
         <v>SC153</v>
       </c>
       <c r="D339" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -13991,7 +14081,7 @@
         <v>SC155</v>
       </c>
       <c r="D341" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -14007,7 +14097,7 @@
         <v>SC156</v>
       </c>
       <c r="D342" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -14023,7 +14113,7 @@
         <v>SC157</v>
       </c>
       <c r="D343" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -14039,7 +14129,7 @@
         <v>SC158</v>
       </c>
       <c r="D344" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -14055,7 +14145,7 @@
         <v>SC159</v>
       </c>
       <c r="D345" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -14135,7 +14225,7 @@
         <v>SC15E</v>
       </c>
       <c r="D350" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -14151,7 +14241,7 @@
         <v>SC15F</v>
       </c>
       <c r="D351" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -14167,7 +14257,7 @@
         <v>SC160</v>
       </c>
       <c r="D352" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -14183,7 +14273,7 @@
         <v>SC161</v>
       </c>
       <c r="D353" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -14199,7 +14289,7 @@
         <v>SC162</v>
       </c>
       <c r="D354" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -14215,7 +14305,7 @@
         <v>SC163</v>
       </c>
       <c r="D355" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -14231,7 +14321,7 @@
         <v>SC164</v>
       </c>
       <c r="D356" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -14247,7 +14337,7 @@
         <v>SC165</v>
       </c>
       <c r="D357" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -14263,7 +14353,7 @@
         <v>SC166</v>
       </c>
       <c r="D358" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -14279,7 +14369,7 @@
         <v>SC167</v>
       </c>
       <c r="D359" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -14295,7 +14385,7 @@
         <v>SC168</v>
       </c>
       <c r="D360" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -14311,7 +14401,7 @@
         <v>SC169</v>
       </c>
       <c r="D361" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -14327,7 +14417,7 @@
         <v>SC16A</v>
       </c>
       <c r="D362" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -14343,7 +14433,7 @@
         <v>SC16B</v>
       </c>
       <c r="D363" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -14359,7 +14449,7 @@
         <v>SC16C</v>
       </c>
       <c r="D364" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -14375,7 +14465,7 @@
         <v>SC16D</v>
       </c>
       <c r="D365" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -14391,7 +14481,7 @@
         <v>SC16E</v>
       </c>
       <c r="D366" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -14407,7 +14497,7 @@
         <v>SC16F</v>
       </c>
       <c r="D367" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -14423,7 +14513,7 @@
         <v>SC170</v>
       </c>
       <c r="D368" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -14439,7 +14529,7 @@
         <v>SC171</v>
       </c>
       <c r="D369" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -14455,7 +14545,7 @@
         <v>SC172</v>
       </c>
       <c r="D370" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -14487,7 +14577,7 @@
         <v>SC174</v>
       </c>
       <c r="D372" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -14503,7 +14593,7 @@
         <v>SC175</v>
       </c>
       <c r="D373" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -14519,7 +14609,7 @@
         <v>SC176</v>
       </c>
       <c r="D374" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -14535,7 +14625,7 @@
         <v>SC177</v>
       </c>
       <c r="D375" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -14551,7 +14641,7 @@
         <v>SC178</v>
       </c>
       <c r="D376" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -14567,7 +14657,7 @@
         <v>SC179</v>
       </c>
       <c r="D377" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -14583,7 +14673,7 @@
         <v>SC17A</v>
       </c>
       <c r="D378" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -14599,7 +14689,7 @@
         <v>SC17B</v>
       </c>
       <c r="D379" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -14615,7 +14705,7 @@
         <v>SC17C</v>
       </c>
       <c r="D380" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -14631,7 +14721,7 @@
         <v>SC17D</v>
       </c>
       <c r="D381" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -14647,7 +14737,7 @@
         <v>SC17E</v>
       </c>
       <c r="D382" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -14663,7 +14753,7 @@
         <v>SC17F</v>
       </c>
       <c r="D383" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -14679,7 +14769,7 @@
         <v>SC180</v>
       </c>
       <c r="D384" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -14695,7 +14785,7 @@
         <v>SC181</v>
       </c>
       <c r="D385" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -14711,7 +14801,7 @@
         <v>SC182</v>
       </c>
       <c r="D386" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -14727,7 +14817,7 @@
         <v>SC183</v>
       </c>
       <c r="D387" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -14743,7 +14833,7 @@
         <v>SC184</v>
       </c>
       <c r="D388" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -14759,7 +14849,7 @@
         <v>SC185</v>
       </c>
       <c r="D389" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -14775,7 +14865,7 @@
         <v>SC186</v>
       </c>
       <c r="D390" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -14791,7 +14881,7 @@
         <v>SC187</v>
       </c>
       <c r="D391" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -14807,7 +14897,7 @@
         <v>SC188</v>
       </c>
       <c r="D392" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -14823,7 +14913,7 @@
         <v>SC189</v>
       </c>
       <c r="D393" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -14839,7 +14929,7 @@
         <v>SC18A</v>
       </c>
       <c r="D394" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -14855,7 +14945,7 @@
         <v>SC18B</v>
       </c>
       <c r="D395" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -14871,7 +14961,7 @@
         <v>SC18C</v>
       </c>
       <c r="D396" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -14887,7 +14977,7 @@
         <v>SC18D</v>
       </c>
       <c r="D397" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -14903,7 +14993,7 @@
         <v>SC18E</v>
       </c>
       <c r="D398" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -14919,7 +15009,7 @@
         <v>SC18F</v>
       </c>
       <c r="D399" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -14935,7 +15025,7 @@
         <v>SC190</v>
       </c>
       <c r="D400" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -14951,7 +15041,7 @@
         <v>SC191</v>
       </c>
       <c r="D401" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -14967,7 +15057,7 @@
         <v>SC192</v>
       </c>
       <c r="D402" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -14983,7 +15073,7 @@
         <v>SC193</v>
       </c>
       <c r="D403" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -14999,7 +15089,7 @@
         <v>SC194</v>
       </c>
       <c r="D404" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -15015,7 +15105,7 @@
         <v>SC195</v>
       </c>
       <c r="D405" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -15031,7 +15121,7 @@
         <v>SC196</v>
       </c>
       <c r="D406" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -15047,7 +15137,7 @@
         <v>SC197</v>
       </c>
       <c r="D407" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -15063,7 +15153,7 @@
         <v>SC198</v>
       </c>
       <c r="D408" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -15079,7 +15169,7 @@
         <v>SC199</v>
       </c>
       <c r="D409" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -15095,7 +15185,7 @@
         <v>SC19A</v>
       </c>
       <c r="D410" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -15111,7 +15201,7 @@
         <v>SC19B</v>
       </c>
       <c r="D411" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -15127,7 +15217,7 @@
         <v>SC19C</v>
       </c>
       <c r="D412" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -15143,7 +15233,7 @@
         <v>SC19D</v>
       </c>
       <c r="D413" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -15159,7 +15249,7 @@
         <v>SC19E</v>
       </c>
       <c r="D414" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -15175,7 +15265,7 @@
         <v>SC19F</v>
       </c>
       <c r="D415" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -15191,7 +15281,7 @@
         <v>SC1A0</v>
       </c>
       <c r="D416" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -15207,7 +15297,7 @@
         <v>SC1A1</v>
       </c>
       <c r="D417" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -15223,7 +15313,7 @@
         <v>SC1A2</v>
       </c>
       <c r="D418" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -15239,7 +15329,7 @@
         <v>SC1A3</v>
       </c>
       <c r="D419" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -15255,7 +15345,7 @@
         <v>SC1A4</v>
       </c>
       <c r="D420" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -15271,7 +15361,7 @@
         <v>SC1A5</v>
       </c>
       <c r="D421" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -15287,7 +15377,7 @@
         <v>SC1A6</v>
       </c>
       <c r="D422" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -15303,7 +15393,7 @@
         <v>SC1A7</v>
       </c>
       <c r="D423" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -15319,7 +15409,7 @@
         <v>SC1A8</v>
       </c>
       <c r="D424" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -15335,7 +15425,7 @@
         <v>SC1A9</v>
       </c>
       <c r="D425" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -15351,7 +15441,7 @@
         <v>SC1AA</v>
       </c>
       <c r="D426" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -15367,7 +15457,7 @@
         <v>SC1AB</v>
       </c>
       <c r="D427" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -15383,7 +15473,7 @@
         <v>SC1AC</v>
       </c>
       <c r="D428" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -15399,7 +15489,7 @@
         <v>SC1AD</v>
       </c>
       <c r="D429" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -15415,7 +15505,7 @@
         <v>SC1AE</v>
       </c>
       <c r="D430" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -15431,7 +15521,7 @@
         <v>SC1AF</v>
       </c>
       <c r="D431" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -15447,7 +15537,7 @@
         <v>SC1B0</v>
       </c>
       <c r="D432" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -15463,7 +15553,7 @@
         <v>SC1B1</v>
       </c>
       <c r="D433" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -15479,7 +15569,7 @@
         <v>SC1B2</v>
       </c>
       <c r="D434" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -15495,7 +15585,7 @@
         <v>SC1B3</v>
       </c>
       <c r="D435" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -15511,7 +15601,7 @@
         <v>SC1B4</v>
       </c>
       <c r="D436" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -15527,7 +15617,7 @@
         <v>SC1B5</v>
       </c>
       <c r="D437" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -15543,7 +15633,7 @@
         <v>SC1B6</v>
       </c>
       <c r="D438" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -15559,7 +15649,7 @@
         <v>SC1B7</v>
       </c>
       <c r="D439" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -15575,7 +15665,7 @@
         <v>SC1B8</v>
       </c>
       <c r="D440" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -15591,7 +15681,7 @@
         <v>SC1B9</v>
       </c>
       <c r="D441" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -15607,7 +15697,7 @@
         <v>SC1BA</v>
       </c>
       <c r="D442" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -15623,7 +15713,7 @@
         <v>SC1BB</v>
       </c>
       <c r="D443" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -15639,7 +15729,7 @@
         <v>SC1BC</v>
       </c>
       <c r="D444" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -15655,7 +15745,7 @@
         <v>SC1BD</v>
       </c>
       <c r="D445" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -15671,7 +15761,7 @@
         <v>SC1BE</v>
       </c>
       <c r="D446" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -15687,7 +15777,7 @@
         <v>SC1BF</v>
       </c>
       <c r="D447" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -15703,7 +15793,7 @@
         <v>SC1C0</v>
       </c>
       <c r="D448" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -15719,7 +15809,7 @@
         <v>SC1C1</v>
       </c>
       <c r="D449" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -15735,7 +15825,7 @@
         <v>SC1C2</v>
       </c>
       <c r="D450" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -15751,7 +15841,7 @@
         <v>SC1C3</v>
       </c>
       <c r="D451" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -15767,7 +15857,7 @@
         <v>SC1C4</v>
       </c>
       <c r="D452" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -15783,7 +15873,7 @@
         <v>SC1C5</v>
       </c>
       <c r="D453" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -15799,7 +15889,7 @@
         <v>SC1C6</v>
       </c>
       <c r="D454" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -15815,7 +15905,7 @@
         <v>SC1C7</v>
       </c>
       <c r="D455" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -15831,7 +15921,7 @@
         <v>SC1C8</v>
       </c>
       <c r="D456" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -15847,7 +15937,7 @@
         <v>SC1C9</v>
       </c>
       <c r="D457" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -15863,7 +15953,7 @@
         <v>SC1CA</v>
       </c>
       <c r="D458" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -15879,7 +15969,7 @@
         <v>SC1CB</v>
       </c>
       <c r="D459" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -15895,7 +15985,7 @@
         <v>SC1CC</v>
       </c>
       <c r="D460" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -15911,7 +16001,7 @@
         <v>SC1CD</v>
       </c>
       <c r="D461" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -15927,7 +16017,7 @@
         <v>SC1CE</v>
       </c>
       <c r="D462" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -15943,7 +16033,7 @@
         <v>SC1CF</v>
       </c>
       <c r="D463" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -15959,7 +16049,7 @@
         <v>SC1D0</v>
       </c>
       <c r="D464" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -15975,7 +16065,7 @@
         <v>SC1D1</v>
       </c>
       <c r="D465" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -15991,7 +16081,7 @@
         <v>SC1D2</v>
       </c>
       <c r="D466" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -16007,7 +16097,7 @@
         <v>SC1D3</v>
       </c>
       <c r="D467" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -16023,7 +16113,7 @@
         <v>SC1D4</v>
       </c>
       <c r="D468" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -16039,7 +16129,7 @@
         <v>SC1D5</v>
       </c>
       <c r="D469" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -16055,7 +16145,7 @@
         <v>SC1D6</v>
       </c>
       <c r="D470" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -16071,7 +16161,7 @@
         <v>SC1D7</v>
       </c>
       <c r="D471" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -16087,7 +16177,7 @@
         <v>SC1D8</v>
       </c>
       <c r="D472" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -16103,7 +16193,7 @@
         <v>SC1D9</v>
       </c>
       <c r="D473" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -16119,7 +16209,7 @@
         <v>SC1DA</v>
       </c>
       <c r="D474" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -16135,7 +16225,7 @@
         <v>SC1DB</v>
       </c>
       <c r="D475" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -16151,7 +16241,7 @@
         <v>SC1DC</v>
       </c>
       <c r="D476" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -16167,7 +16257,7 @@
         <v>SC1DD</v>
       </c>
       <c r="D477" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -16183,7 +16273,7 @@
         <v>SC1DE</v>
       </c>
       <c r="D478" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -16199,7 +16289,7 @@
         <v>SC1DF</v>
       </c>
       <c r="D479" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -16215,7 +16305,7 @@
         <v>SC1E0</v>
       </c>
       <c r="D480" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -16231,7 +16321,7 @@
         <v>SC1E1</v>
       </c>
       <c r="D481" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -16247,7 +16337,7 @@
         <v>SC1E2</v>
       </c>
       <c r="D482" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -16263,7 +16353,7 @@
         <v>SC1E3</v>
       </c>
       <c r="D483" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -16279,7 +16369,7 @@
         <v>SC1E4</v>
       </c>
       <c r="D484" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -16295,7 +16385,7 @@
         <v>SC1E5</v>
       </c>
       <c r="D485" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -16311,7 +16401,7 @@
         <v>SC1E6</v>
       </c>
       <c r="D486" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -16327,7 +16417,7 @@
         <v>SC1E7</v>
       </c>
       <c r="D487" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -16343,7 +16433,7 @@
         <v>SC1E8</v>
       </c>
       <c r="D488" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -16359,7 +16449,7 @@
         <v>SC1E9</v>
       </c>
       <c r="D489" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -16375,7 +16465,7 @@
         <v>SC1EA</v>
       </c>
       <c r="D490" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -16391,7 +16481,7 @@
         <v>SC1EB</v>
       </c>
       <c r="D491" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -16407,7 +16497,7 @@
         <v>SC1EC</v>
       </c>
       <c r="D492" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -16423,7 +16513,7 @@
         <v>SC1ED</v>
       </c>
       <c r="D493" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -16439,7 +16529,7 @@
         <v>SC1EE</v>
       </c>
       <c r="D494" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -16455,7 +16545,7 @@
         <v>SC1EF</v>
       </c>
       <c r="D495" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -16471,7 +16561,7 @@
         <v>SC1F0</v>
       </c>
       <c r="D496" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -16487,7 +16577,7 @@
         <v>SC1F1</v>
       </c>
       <c r="D497" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -16503,7 +16593,7 @@
         <v>SC1F2</v>
       </c>
       <c r="D498" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -16519,7 +16609,7 @@
         <v>SC1F3</v>
       </c>
       <c r="D499" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -16535,7 +16625,7 @@
         <v>SC1F4</v>
       </c>
       <c r="D500" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -16551,7 +16641,7 @@
         <v>SC1F5</v>
       </c>
       <c r="D501" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -16567,7 +16657,7 @@
         <v>SC1F6</v>
       </c>
       <c r="D502" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -16583,7 +16673,7 @@
         <v>SC1F7</v>
       </c>
       <c r="D503" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -16599,7 +16689,7 @@
         <v>SC1F8</v>
       </c>
       <c r="D504" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -16615,7 +16705,7 @@
         <v>SC1F9</v>
       </c>
       <c r="D505" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -16631,7 +16721,7 @@
         <v>SC1FA</v>
       </c>
       <c r="D506" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -16647,7 +16737,7 @@
         <v>SC1FB</v>
       </c>
       <c r="D507" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -16663,7 +16753,7 @@
         <v>SC1FC</v>
       </c>
       <c r="D508" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -16679,7 +16769,7 @@
         <v>SC1FD</v>
       </c>
       <c r="D509" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -16695,7 +16785,7 @@
         <v>SC1FE</v>
       </c>
       <c r="D510" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -16711,7 +16801,7 @@
         <v>SC1FF</v>
       </c>
       <c r="D511" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -16727,7 +16817,7 @@
         <v>SC200</v>
       </c>
       <c r="D512" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -16743,7 +16833,7 @@
         <v>SC201</v>
       </c>
       <c r="D513" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -16759,7 +16849,7 @@
         <v>SC202</v>
       </c>
       <c r="D514" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -16775,7 +16865,7 @@
         <v>SC203</v>
       </c>
       <c r="D515" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -16791,7 +16881,7 @@
         <v>SC204</v>
       </c>
       <c r="D516" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="517" spans="1:4">

--- a/INFO_and_PROFILES/Table_of_all_scan_codes.xlsx
+++ b/INFO_and_PROFILES/Table_of_all_scan_codes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="410" windowWidth="24410" windowHeight="17530" tabRatio="236"/>
+    <workbookView xWindow="7170" yWindow="405" windowWidth="24405" windowHeight="17535" tabRatio="236"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -306,12 +305,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="D324" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This does indeed launch the calculator</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D399" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Launches File Explorer to "This PC" screen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D401" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This opened Groove Music</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1525">
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/API/KeyboardEvent/code</t>
   </si>
@@ -4695,12 +4736,291 @@
   <si>
     <t>maybe need a scroll lock…</t>
   </si>
+  <si>
+    <t>KC_KP_EQUAL</t>
+  </si>
+  <si>
+    <t>KC_OUT</t>
+  </si>
+  <si>
+    <t>KC_ALT_ERASE</t>
+  </si>
+  <si>
+    <t>KC_KP_EQUAL_AS400</t>
+  </si>
+  <si>
+    <t>KC_NUBS</t>
+  </si>
+  <si>
+    <t>KC_CLEAR_AGAIN</t>
+  </si>
+  <si>
+    <t>KC_SYSREQ</t>
+  </si>
+  <si>
+    <t>KC_CANCEL</t>
+  </si>
+  <si>
+    <t>KC_CLEAR</t>
+  </si>
+  <si>
+    <t>KC_PRIOR</t>
+  </si>
+  <si>
+    <t>KC_RETURN</t>
+  </si>
+  <si>
+    <t>KC_SEPARATOR</t>
+  </si>
+  <si>
+    <t>KC_WWW_REFRESH</t>
+  </si>
+  <si>
+    <t>[this shut down the whole compuer, so I'm not sure what the scan code is!]</t>
+  </si>
+  <si>
+    <t>[This put the computer to sleep, so IDK what the scan code really is!]</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>KC_MEDIA_SELECT</t>
+  </si>
+  <si>
+    <t>KC_MAIL</t>
+  </si>
+  <si>
+    <t>KC_MY_COMPUTER</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Lauch_App1</t>
+  </si>
+  <si>
+    <t>This PC</t>
+  </si>
+  <si>
+    <t>Groove Music</t>
+  </si>
+  <si>
+    <t>Inbox - Outlook</t>
+  </si>
+  <si>
+    <t>Yup. Goes to your default browser's Home page</t>
+  </si>
+  <si>
+    <t>KC_KP_ENTER</t>
+  </si>
+  <si>
+    <t>KC_AUDIO_VOL_DOWN</t>
+  </si>
+  <si>
+    <t>KC_AUDIO_VOL_UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_UP       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_DOWN     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_LEFT     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_RIGHT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_BTN1     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_BTN2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_BTN3     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_BTN4     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_BTN5     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_WH_UP    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_WH_DOWN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_WH_LEFT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_WH_RIGHT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_ACCEL0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_ACCEL1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_MS_ACCEL2   </t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>KC_FN1</t>
+  </si>
+  <si>
+    <t>KC_FN2</t>
+  </si>
+  <si>
+    <t>KC_FN3</t>
+  </si>
+  <si>
+    <t>KC_FN4</t>
+  </si>
+  <si>
+    <t>KC_FN30</t>
+  </si>
+  <si>
+    <t>KC_FN31</t>
+  </si>
+  <si>
+    <t>Lcontrol,Lshift,a</t>
+  </si>
+  <si>
+    <t>Mouse Cursor Up</t>
+  </si>
+  <si>
+    <t>Mouse Cursor Down</t>
+  </si>
+  <si>
+    <t>Mouse Cursor Left</t>
+  </si>
+  <si>
+    <t>Mouse Cursor Right</t>
+  </si>
+  <si>
+    <t>Mouse Button 1</t>
+  </si>
+  <si>
+    <t>Mouse Button 2</t>
+  </si>
+  <si>
+    <t>Mouse Button 3</t>
+  </si>
+  <si>
+    <t>Mouse Button 4</t>
+  </si>
+  <si>
+    <t>Mouse Button 5</t>
+  </si>
+  <si>
+    <t>Mouse Wheel Up</t>
+  </si>
+  <si>
+    <t>Mouse Wheel Down</t>
+  </si>
+  <si>
+    <t>Mouse Wheel Left</t>
+  </si>
+  <si>
+    <t>Mouse Wheel Right</t>
+  </si>
+  <si>
+    <t>Mouse Acceleration 0</t>
+  </si>
+  <si>
+    <t>Mouse Acceleration 1</t>
+  </si>
+  <si>
+    <t>Mouse Acceleration 2</t>
+  </si>
+  <si>
+    <t>KC_FN5</t>
+  </si>
+  <si>
+    <t>KC_FN6</t>
+  </si>
+  <si>
+    <t>KC_FN7</t>
+  </si>
+  <si>
+    <t>KC_FN8</t>
+  </si>
+  <si>
+    <t>Lcontrol,Lshift,space</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>page up,volume up</t>
+  </si>
+  <si>
+    <t>numpadmult</t>
+  </si>
+  <si>
+    <t>numlock</t>
+  </si>
+  <si>
+    <t>[I didn't bother checking any others….]</t>
+  </si>
+  <si>
+    <t>KC_FN9</t>
+  </si>
+  <si>
+    <t>KC_FN10</t>
+  </si>
+  <si>
+    <t>KC_FN11</t>
+  </si>
+  <si>
+    <t>KC_ROLL_OVER</t>
+  </si>
+  <si>
+    <t>KC_UNDEFINED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_UNDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_CUT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_COPY </t>
+  </si>
+  <si>
+    <t>KC_PASTE</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>7c</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t>Doesn't even work! LAME!!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5038,6 +5358,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -5224,7 +5552,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5489,6 +5817,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5941,31 +6282,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T630"/>
+  <dimension ref="A1:T678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E322" sqref="E322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="13.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" style="76" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" style="76" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" style="123" customWidth="1"/>
-    <col min="13" max="13" width="22.26953125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="20" max="20" width="36.7265625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="76" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="76" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="123" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="36.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="29" customFormat="1" ht="21">
@@ -6015,7 +6356,7 @@
       <c r="Q2" s="95"/>
       <c r="T2" s="96"/>
     </row>
-    <row r="3" spans="1:20" s="33" customFormat="1" ht="16" thickBot="1">
+    <row r="3" spans="1:20" s="33" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="32"/>
       <c r="B3" s="51" t="s">
         <v>274</v>
@@ -6058,7 +6399,7 @@
       </c>
       <c r="T3" s="35"/>
     </row>
-    <row r="4" spans="1:20" s="19" customFormat="1">
+    <row r="4" spans="1:20" s="19" customFormat="1" ht="15.75">
       <c r="B4" s="22" t="s">
         <v>303</v>
       </c>
@@ -6086,7 +6427,7 @@
       </c>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" spans="1:20" s="19" customFormat="1">
+    <row r="5" spans="1:20" s="19" customFormat="1" ht="15.75">
       <c r="B5" s="23" t="s">
         <v>304</v>
       </c>
@@ -6114,7 +6455,7 @@
       </c>
       <c r="T5" s="21"/>
     </row>
-    <row r="6" spans="1:20" s="19" customFormat="1">
+    <row r="6" spans="1:20" s="19" customFormat="1" ht="15.75">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
@@ -6129,7 +6470,7 @@
       <c r="M6" s="13"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="15.75">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>409</v>
@@ -6151,7 +6492,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="15.75">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>301</v>
@@ -6173,7 +6514,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="15.75">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>302</v>
@@ -6193,7 +6534,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="15.75">
       <c r="A10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -6213,7 +6554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="15.75">
       <c r="A11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -6236,7 +6577,7 @@
       </c>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="15.75">
       <c r="A12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -6259,7 +6600,7 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="15.75">
       <c r="A13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -6282,7 +6623,7 @@
       </c>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="15.75">
       <c r="A14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -6305,7 +6646,7 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="15.75">
       <c r="A15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
@@ -6328,7 +6669,7 @@
       </c>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="15.75">
       <c r="A16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -6351,7 +6692,7 @@
       </c>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -6374,7 +6715,7 @@
       </c>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -6397,7 +6738,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="1"/>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -6420,7 +6761,7 @@
       </c>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -6443,7 +6784,7 @@
       </c>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -6464,7 +6805,7 @@
       </c>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="1"/>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -6485,7 +6826,7 @@
       </c>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="15.75">
       <c r="A23" s="1"/>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -6505,7 +6846,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
+    <row r="24" spans="1:13" ht="16.5" thickBot="1">
       <c r="A24" s="1"/>
       <c r="C24" s="39" t="s">
         <v>16</v>
@@ -6526,7 +6867,7 @@
       </c>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="1"/>
       <c r="C25" s="2" t="s">
         <v>17</v>
@@ -6547,7 +6888,7 @@
       </c>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="1"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -6568,7 +6909,7 @@
       </c>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="1"/>
       <c r="C27" s="2" t="s">
         <v>19</v>
@@ -6589,7 +6930,7 @@
       </c>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -6610,7 +6951,7 @@
       </c>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>21</v>
@@ -6631,7 +6972,7 @@
       </c>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>22</v>
@@ -6652,7 +6993,7 @@
       </c>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>23</v>
@@ -6673,7 +7014,7 @@
       </c>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>24</v>
@@ -6694,7 +7035,7 @@
       </c>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="1"/>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -6715,7 +7056,7 @@
       </c>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="15.75">
       <c r="B34" s="10">
         <v>50</v>
       </c>
@@ -6737,7 +7078,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" ht="15.75">
       <c r="A35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>27</v>
@@ -6759,7 +7100,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="1"/>
       <c r="C36" s="2" t="s">
         <v>28</v>
@@ -6781,7 +7122,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>29</v>
@@ -6801,7 +7142,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="15.75">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>418</v>
@@ -6824,7 +7165,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>31</v>
@@ -6844,7 +7185,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1">
+    <row r="40" spans="1:13" ht="16.5" thickBot="1">
       <c r="A40" s="1"/>
       <c r="C40" s="39" t="s">
         <v>32</v>
@@ -6864,7 +7205,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="1"/>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -6884,7 +7225,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="15.75">
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11" t="s">
@@ -6905,7 +7246,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="15.75">
       <c r="A43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>35</v>
@@ -6925,7 +7266,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="1"/>
       <c r="C44" s="2" t="s">
         <v>36</v>
@@ -6945,7 +7286,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>37</v>
@@ -6965,7 +7306,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>38</v>
@@ -6985,7 +7326,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>39</v>
@@ -7005,7 +7346,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="1"/>
       <c r="C48" s="2" t="s">
         <v>40</v>
@@ -7025,7 +7366,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="1"/>
       <c r="C49" s="2" t="s">
         <v>41</v>
@@ -7046,7 +7387,7 @@
       </c>
       <c r="M49" s="117"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="1"/>
       <c r="C50" s="2" t="s">
         <v>42</v>
@@ -7066,7 +7407,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="1"/>
       <c r="C51" s="2" t="s">
         <v>43</v>
@@ -7089,7 +7430,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
         <v>288</v>
@@ -7112,7 +7453,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
         <v>288</v>
@@ -7135,7 +7476,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>45</v>
@@ -7155,7 +7496,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>46</v>
@@ -7175,7 +7516,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" ht="15.75">
       <c r="A56" s="1"/>
       <c r="C56" s="2" t="s">
         <v>47</v>
@@ -7195,7 +7536,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1">
+    <row r="57" spans="1:13" ht="16.5" thickBot="1">
       <c r="A57" s="1"/>
       <c r="C57" s="39" t="s">
         <v>48</v>
@@ -7215,7 +7556,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="15.75">
       <c r="A58" s="1"/>
       <c r="C58" s="2" t="s">
         <v>49</v>
@@ -7235,7 +7576,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="15.75">
       <c r="A59" s="1"/>
       <c r="C59" s="2" t="s">
         <v>50</v>
@@ -7255,7 +7596,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="15.75">
       <c r="A60" s="1"/>
       <c r="C60" s="2" t="s">
         <v>51</v>
@@ -7275,7 +7616,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" ht="15.75">
       <c r="A61" s="1"/>
       <c r="C61" s="2" t="s">
         <v>52</v>
@@ -7295,7 +7636,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="1"/>
       <c r="C62" s="2" t="s">
         <v>53</v>
@@ -7315,7 +7656,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" s="1"/>
       <c r="C63" s="2" t="s">
         <v>54</v>
@@ -7335,7 +7676,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="1"/>
       <c r="C64" s="2" t="s">
         <v>55</v>
@@ -7358,7 +7699,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="1"/>
       <c r="C65" s="2" t="s">
         <v>56</v>
@@ -7375,7 +7716,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="1"/>
       <c r="C66" s="2" t="s">
         <v>57</v>
@@ -7395,7 +7736,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="1"/>
       <c r="C67" s="2" t="s">
         <v>58</v>
@@ -7412,7 +7753,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="1"/>
       <c r="C68" s="2" t="s">
         <v>59</v>
@@ -7432,7 +7773,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="1"/>
       <c r="C69" s="2" t="s">
         <v>60</v>
@@ -7452,7 +7793,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" ht="15.75">
       <c r="A70" s="1"/>
       <c r="C70" s="2" t="s">
         <v>61</v>
@@ -7472,7 +7813,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="1"/>
       <c r="C71" s="2" t="s">
         <v>62</v>
@@ -7492,7 +7833,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" ht="15.75">
       <c r="A72" s="1"/>
       <c r="C72" s="2" t="s">
         <v>63</v>
@@ -7512,7 +7853,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1">
+    <row r="73" spans="1:13" ht="16.5" thickBot="1">
       <c r="A73" s="1"/>
       <c r="C73" s="39" t="s">
         <v>64</v>
@@ -7532,7 +7873,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" ht="15.75">
       <c r="A74" s="1"/>
       <c r="C74" s="2" t="s">
         <v>65</v>
@@ -7552,7 +7893,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" ht="15.75">
       <c r="A75" s="1"/>
       <c r="C75" s="2" t="s">
         <v>66</v>
@@ -7572,7 +7913,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" ht="15.75">
       <c r="A76" s="1"/>
       <c r="C76" s="2" t="s">
         <v>67</v>
@@ -7592,7 +7933,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" ht="15.75">
       <c r="A77" s="1"/>
       <c r="C77" s="2" t="s">
         <v>68</v>
@@ -7612,7 +7953,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" ht="15.75">
       <c r="A78" s="1"/>
       <c r="C78" s="2" t="s">
         <v>69</v>
@@ -7632,7 +7973,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" ht="15.75">
       <c r="A79" s="1"/>
       <c r="C79" s="2" t="s">
         <v>70</v>
@@ -7657,7 +7998,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" ht="15.75">
       <c r="A80" s="1"/>
       <c r="C80" s="2" t="s">
         <v>71</v>
@@ -7680,7 +8021,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" ht="15.75">
       <c r="A81" s="1"/>
       <c r="B81" s="3">
         <v>67</v>
@@ -7703,7 +8044,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" ht="15.75">
       <c r="A82" s="1"/>
       <c r="B82" s="97">
         <v>24</v>
@@ -7723,7 +8064,7 @@
       </c>
       <c r="H82" s="57"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" ht="15.75">
       <c r="A83" s="1"/>
       <c r="B83" s="97">
         <v>68</v>
@@ -7746,7 +8087,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" ht="15.75">
       <c r="A84" s="1"/>
       <c r="B84" s="97">
         <v>26</v>
@@ -7766,7 +8107,7 @@
       </c>
       <c r="H84" s="57"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" ht="15.75">
       <c r="A85" s="1"/>
       <c r="B85" s="97">
         <v>69</v>
@@ -7789,7 +8130,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="1"/>
       <c r="B86" s="97">
         <v>21</v>
@@ -7809,7 +8150,7 @@
       </c>
       <c r="H86" s="57"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" ht="15.75">
       <c r="A87" s="1"/>
       <c r="B87" s="97" t="s">
         <v>225</v>
@@ -7832,7 +8173,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" ht="15.75">
       <c r="A88" s="1"/>
       <c r="B88" s="97">
         <v>64</v>
@@ -7855,7 +8196,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" ht="15.75">
       <c r="A89" s="1"/>
       <c r="B89" s="97">
         <v>25</v>
@@ -7875,7 +8216,7 @@
       </c>
       <c r="H89" s="57"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" ht="15.75">
       <c r="A90" s="1"/>
       <c r="B90" s="97">
         <v>65</v>
@@ -7904,7 +8245,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" ht="15.75">
       <c r="A91" s="1"/>
       <c r="B91" s="97" t="s">
         <v>562</v>
@@ -7924,7 +8265,7 @@
       </c>
       <c r="H91" s="57"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" ht="15.75">
       <c r="A92" s="1"/>
       <c r="B92" s="97">
         <v>66</v>
@@ -7947,7 +8288,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" ht="15.75">
       <c r="A93" s="1"/>
       <c r="B93" s="97">
         <v>27</v>
@@ -7967,7 +8308,7 @@
       </c>
       <c r="H93" s="57"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" ht="15.75">
       <c r="A94" s="1"/>
       <c r="B94" s="97" t="s">
         <v>222</v>
@@ -7990,7 +8331,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" ht="15.75">
       <c r="A95" s="1"/>
       <c r="B95" s="97">
         <v>61</v>
@@ -8013,7 +8354,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" ht="15.75">
       <c r="A96" s="1"/>
       <c r="B96" s="97">
         <v>23</v>
@@ -8034,7 +8375,7 @@
       <c r="H96" s="57"/>
       <c r="I96" s="38"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="1"/>
       <c r="B97" s="97">
         <v>62</v>
@@ -8057,7 +8398,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" ht="15.75">
       <c r="A98" s="1"/>
       <c r="B98" s="97">
         <v>28</v>
@@ -8078,7 +8419,7 @@
       <c r="H98" s="57"/>
       <c r="I98" s="38"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" ht="15.75">
       <c r="A99" s="1"/>
       <c r="B99" s="97">
         <v>63</v>
@@ -8101,7 +8442,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" ht="15.75">
       <c r="A100" s="1"/>
       <c r="B100" s="97">
         <v>22</v>
@@ -8122,7 +8463,7 @@
       <c r="H100" s="57"/>
       <c r="I100" s="38"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" ht="15.75">
       <c r="A101" s="1"/>
       <c r="B101" s="97">
         <v>60</v>
@@ -8147,7 +8488,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" ht="15.75">
       <c r="A102" s="1"/>
       <c r="B102" s="97" t="s">
         <v>566</v>
@@ -8172,7 +8513,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" ht="15.75">
       <c r="A103" s="1"/>
       <c r="B103" s="97" t="s">
         <v>224</v>
@@ -8194,7 +8535,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" ht="15.75">
       <c r="A104" s="1"/>
       <c r="B104" s="97" t="s">
         <v>275</v>
@@ -8219,7 +8560,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" ht="15.75">
       <c r="A105" s="1"/>
       <c r="B105" s="97" t="s">
         <v>543</v>
@@ -8241,7 +8582,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" ht="15.75">
       <c r="A106" s="1"/>
       <c r="C106" s="2" t="s">
         <v>85</v>
@@ -8263,7 +8604,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" ht="15.75">
       <c r="A107" s="1"/>
       <c r="B107" s="3" t="s">
         <v>262</v>
@@ -8287,8 +8628,11 @@
       <c r="I107" s="4" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="K107" s="76" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75">
       <c r="A108" s="1"/>
       <c r="B108" s="3" t="s">
         <v>227</v>
@@ -8313,7 +8657,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" ht="15.75">
       <c r="A109" s="1"/>
       <c r="B109" s="3" t="s">
         <v>226</v>
@@ -8338,10 +8682,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" ht="15.75">
       <c r="A110" s="1"/>
-      <c r="B110" s="3" t="s">
-        <v>276</v>
+      <c r="B110" s="137" t="s">
+        <v>562</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>89</v>
@@ -8359,8 +8703,14 @@
       <c r="I110" s="4" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="K110" s="76" t="s">
+        <v>1432</v>
+      </c>
+      <c r="L110" s="123">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75">
       <c r="A111" s="1"/>
       <c r="B111" s="3" t="s">
         <v>233</v>
@@ -8385,7 +8735,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" ht="15.75">
       <c r="A112" s="1"/>
       <c r="B112" s="3" t="s">
         <v>133</v>
@@ -8407,7 +8757,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="29">
+    <row r="113" spans="1:13" ht="30.75">
       <c r="A113" s="1"/>
       <c r="B113" s="3" t="s">
         <v>235</v>
@@ -8441,7 +8791,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" ht="15.75">
       <c r="A114" s="1"/>
       <c r="C114" s="2" t="s">
         <v>93</v>
@@ -8474,7 +8824,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" ht="15.75">
       <c r="A115" s="1"/>
       <c r="C115" s="2" t="s">
         <v>94</v>
@@ -8495,13 +8845,7 @@
       <c r="J115" s="77" t="s">
         <v>423</v>
       </c>
-      <c r="K115" s="76" t="s">
-        <v>1404</v>
-      </c>
-      <c r="L115" s="123" t="s">
-        <v>1406</v>
-      </c>
-      <c r="M115" s="13" t="s">
+      <c r="M115" s="16" t="s">
         <v>908</v>
       </c>
     </row>
@@ -8526,15 +8870,11 @@
       <c r="J116" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="K116" s="77" t="s">
-        <v>1405</v>
-      </c>
-      <c r="L116" s="124"/>
       <c r="M116" s="13" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" ht="15.75">
       <c r="A117" s="1"/>
       <c r="C117" s="2" t="s">
         <v>96</v>
@@ -8556,7 +8896,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" ht="15.75">
       <c r="A118" s="1"/>
       <c r="C118" s="2" t="s">
         <v>97</v>
@@ -8581,7 +8921,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" ht="15.75">
       <c r="A119" s="1"/>
       <c r="B119" s="3" t="s">
         <v>279</v>
@@ -8603,7 +8943,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" ht="15.75">
       <c r="A120" s="1"/>
       <c r="B120" s="3" t="s">
         <v>278</v>
@@ -8627,14 +8967,11 @@
       <c r="J120" s="76" t="s">
         <v>425</v>
       </c>
-      <c r="K120" s="76" t="s">
-        <v>1407</v>
-      </c>
       <c r="M120" s="13" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" ht="15.75">
       <c r="A121" s="1"/>
       <c r="C121" s="2" t="s">
         <v>100</v>
@@ -8656,7 +8993,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" ht="15.75">
       <c r="A122" s="1"/>
       <c r="C122" s="2" t="s">
         <v>101</v>
@@ -8681,7 +9018,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" ht="15.75">
       <c r="A123" s="1"/>
       <c r="C123" s="2" t="s">
         <v>102</v>
@@ -8706,7 +9043,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" ht="15.75">
       <c r="A124" s="1"/>
       <c r="C124" s="2" t="s">
         <v>103</v>
@@ -8731,7 +9068,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" ht="15.75">
       <c r="A125" s="1"/>
       <c r="C125" s="2" t="s">
         <v>104</v>
@@ -8756,7 +9093,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" ht="15.75">
       <c r="A126" s="1"/>
       <c r="C126" s="2" t="s">
         <v>105</v>
@@ -8781,7 +9118,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" ht="15.75">
       <c r="A127" s="1"/>
       <c r="C127" s="2" t="s">
         <v>106</v>
@@ -8806,7 +9143,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" ht="15.75">
       <c r="A128" s="1"/>
       <c r="C128" s="2" t="s">
         <v>107</v>
@@ -8831,7 +9168,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" ht="15.75">
       <c r="A129" s="1"/>
       <c r="C129" s="2" t="s">
         <v>108</v>
@@ -8853,7 +9190,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" ht="15.75">
       <c r="A130" s="1"/>
       <c r="C130" s="2" t="s">
         <v>109</v>
@@ -8875,7 +9212,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" ht="15.75">
       <c r="A131" s="1"/>
       <c r="C131" s="2" t="s">
         <v>110</v>
@@ -8900,7 +9237,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="15" thickBot="1">
+    <row r="132" spans="1:14" ht="16.5" thickBot="1">
       <c r="A132" s="1"/>
       <c r="C132" s="39" t="s">
         <v>111</v>
@@ -8958,7 +9295,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" ht="15.75">
       <c r="A134" s="1"/>
       <c r="B134" s="3" t="s">
         <v>231</v>
@@ -8995,7 +9332,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" ht="15.75">
       <c r="A135" s="1"/>
       <c r="C135" s="2" t="s">
         <v>114</v>
@@ -9029,7 +9366,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="43.5">
+    <row r="136" spans="1:14" ht="45.75">
       <c r="A136" s="1"/>
       <c r="B136" s="3" t="s">
         <v>237</v>
@@ -9066,7 +9403,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="1"/>
       <c r="C137" s="2" t="s">
         <v>116</v>
@@ -9085,7 +9422,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" ht="15.75">
       <c r="A138" s="1"/>
       <c r="C138" s="2" t="s">
         <v>117</v>
@@ -9104,7 +9441,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" ht="15.75">
       <c r="A139" s="1"/>
       <c r="B139" s="66">
         <v>87</v>
@@ -9139,7 +9476,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="43.5">
+    <row r="140" spans="1:14" ht="45.75">
       <c r="A140" s="1"/>
       <c r="B140" s="66">
         <v>87</v>
@@ -9174,7 +9511,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="43.5">
+    <row r="141" spans="1:14" ht="45.75">
       <c r="A141" s="1"/>
       <c r="B141" s="3" t="s">
         <v>287</v>
@@ -9214,7 +9551,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="43.5">
+    <row r="142" spans="1:14" ht="45.75">
       <c r="A142" s="1"/>
       <c r="C142" s="2" t="s">
         <v>119</v>
@@ -9249,7 +9586,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="72.5">
+    <row r="143" spans="1:14" ht="75.75">
       <c r="A143" s="1"/>
       <c r="B143" s="3" t="s">
         <v>287</v>
@@ -9289,7 +9626,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" ht="15.75">
       <c r="A144" s="1"/>
       <c r="C144" s="2" t="s">
         <v>121</v>
@@ -9314,7 +9651,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="43.5">
+    <row r="145" spans="1:14" ht="45.75">
       <c r="A145" s="1"/>
       <c r="B145" s="3" t="s">
         <v>280</v>
@@ -9356,7 +9693,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" ht="15.75">
       <c r="A146" s="1"/>
       <c r="B146" s="3">
         <v>9</v>
@@ -9384,7 +9721,7 @@
       </c>
       <c r="M146" s="16"/>
     </row>
-    <row r="147" spans="1:14" ht="43.5">
+    <row r="147" spans="1:14" ht="45.75">
       <c r="A147" s="1"/>
       <c r="B147" s="3" t="s">
         <v>287</v>
@@ -9426,7 +9763,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" ht="15.75">
       <c r="A148" s="1"/>
       <c r="B148" s="3" t="s">
         <v>232</v>
@@ -9465,7 +9802,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15" thickBot="1">
+    <row r="149" spans="1:14" ht="16.5" thickBot="1">
       <c r="A149" s="1"/>
       <c r="B149" s="3">
         <v>0</v>
@@ -9493,7 +9830,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" ht="15.75">
       <c r="A150" s="1"/>
       <c r="C150" s="43"/>
       <c r="D150" s="24"/>
@@ -9688,7 +10025,9 @@
       <c r="C160" s="82" t="s">
         <v>458</v>
       </c>
-      <c r="D160" s="38"/>
+      <c r="D160" s="38" t="s">
+        <v>945</v>
+      </c>
       <c r="E160" s="4" t="s">
         <v>1326</v>
       </c>
@@ -9704,7 +10043,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" ht="15.75">
       <c r="A161" s="1"/>
       <c r="C161" s="43"/>
       <c r="D161" s="24"/>
@@ -9928,7 +10267,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="177" spans="3:9" ht="15" thickBot="1">
+    <row r="177" spans="3:9" ht="15.75" thickBot="1">
       <c r="C177" s="39" t="s">
         <v>322</v>
       </c>
@@ -10093,7 +10432,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="193" spans="3:13" ht="15" thickBot="1">
+    <row r="193" spans="3:13" ht="15.75" thickBot="1">
       <c r="C193" s="39" t="s">
         <v>340</v>
       </c>
@@ -10818,7 +11157,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="274" spans="3:13" ht="15" thickBot="1">
+    <row r="274" spans="3:13" ht="15.75" thickBot="1">
       <c r="C274" s="40" t="s">
         <v>352</v>
       </c>
@@ -10840,7 +11179,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="276" spans="3:13" ht="43.5">
+    <row r="276" spans="3:13" ht="45">
       <c r="C276" s="2" t="s">
         <v>697</v>
       </c>
@@ -10857,7 +11196,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="277" spans="3:13" ht="43.5">
+    <row r="277" spans="3:13" ht="45">
       <c r="C277" t="s">
         <v>698</v>
       </c>
@@ -11258,6 +11597,12 @@
       <c r="I319" s="4" t="s">
         <v>1274</v>
       </c>
+      <c r="K319" s="76" t="s">
+        <v>1457</v>
+      </c>
+      <c r="L319" s="123">
+        <v>58</v>
+      </c>
     </row>
     <row r="320" spans="2:13">
       <c r="B320" s="3" t="s">
@@ -11288,7 +11633,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="322" spans="2:9" ht="15" thickBot="1">
+    <row r="322" spans="2:9" ht="15.75" thickBot="1">
       <c r="C322" s="40" t="s">
         <v>391</v>
       </c>
@@ -11316,10 +11661,15 @@
       </c>
     </row>
     <row r="324" spans="2:9">
+      <c r="B324" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C324" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="D324"/>
+      <c r="D324" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="E324"/>
       <c r="G324" s="57"/>
       <c r="H324" s="57"/>
@@ -11476,8 +11826,14 @@
       <c r="I337" s="4" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="338" spans="2:13" ht="15" thickBot="1">
+      <c r="K337" s="76" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L337" s="123">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="338" spans="2:13" ht="15.75" thickBot="1">
       <c r="C338" s="40" t="s">
         <v>405</v>
       </c>
@@ -11507,6 +11863,12 @@
       <c r="I339" s="4" t="s">
         <v>1281</v>
       </c>
+      <c r="K339" s="76" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L339" s="123">
+        <v>80</v>
+      </c>
     </row>
     <row r="340" spans="2:13">
       <c r="C340" s="37" t="s">
@@ -11517,12 +11879,18 @@
       </c>
     </row>
     <row r="341" spans="2:13">
-      <c r="B341" s="53"/>
-      <c r="C341" s="37" t="s">
+      <c r="B341" s="139" t="s">
+        <v>269</v>
+      </c>
+      <c r="C341" s="140" t="s">
         <v>228</v>
       </c>
-      <c r="D341" s="54"/>
-      <c r="E341" s="54"/>
+      <c r="D341" s="141" t="s">
+        <v>247</v>
+      </c>
+      <c r="E341" s="141" t="s">
+        <v>1456</v>
+      </c>
       <c r="F341" s="55"/>
       <c r="G341" s="55"/>
       <c r="H341" s="55"/>
@@ -11578,7 +11946,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="345" spans="2:13">
+    <row r="345" spans="2:13" ht="15.75">
       <c r="B345" s="3" t="s">
         <v>462</v>
       </c>
@@ -11663,7 +12031,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="354" spans="2:13" ht="15" thickBot="1">
+    <row r="354" spans="2:13" ht="15.75" thickBot="1">
       <c r="C354" s="41" t="s">
         <v>446</v>
       </c>
@@ -11831,7 +12199,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="369" spans="2:18" ht="13" customHeight="1">
+    <row r="369" spans="2:18" ht="12.95" customHeight="1">
       <c r="C369" s="2" t="s">
         <v>506</v>
       </c>
@@ -12020,6 +12388,12 @@
       </c>
       <c r="I384" s="4" t="s">
         <v>1295</v>
+      </c>
+      <c r="K384" s="76" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L384" s="123">
+        <v>65</v>
       </c>
       <c r="M384" s="13" t="s">
         <v>1421</v>
@@ -12242,6 +12616,9 @@
       <c r="I395" s="4" t="s">
         <v>1301</v>
       </c>
+      <c r="K395" s="76" t="s">
+        <v>1444</v>
+      </c>
       <c r="O395" s="3" t="s">
         <v>240</v>
       </c>
@@ -12326,11 +12703,23 @@
       <c r="R398" s="4"/>
     </row>
     <row r="399" spans="2:18">
+      <c r="B399" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C399" t="s">
         <v>739</v>
       </c>
+      <c r="D399" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>1453</v>
+      </c>
       <c r="I399" s="4" t="s">
         <v>1305</v>
+      </c>
+      <c r="K399" s="76" t="s">
+        <v>1450</v>
       </c>
       <c r="O399" s="3"/>
       <c r="P399" s="4"/>
@@ -12338,11 +12727,23 @@
       <c r="R399" s="4"/>
     </row>
     <row r="400" spans="2:18">
+      <c r="B400" s="3" t="s">
+        <v>1451</v>
+      </c>
       <c r="C400" t="s">
         <v>740</v>
       </c>
+      <c r="D400" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E400" s="4" t="s">
+        <v>1455</v>
+      </c>
       <c r="I400" s="4" t="s">
         <v>1306</v>
+      </c>
+      <c r="K400" s="76" t="s">
+        <v>1449</v>
       </c>
       <c r="O400" s="3"/>
       <c r="P400" s="4"/>
@@ -12352,11 +12753,23 @@
       <c r="R400" s="4"/>
     </row>
     <row r="401" spans="2:18">
+      <c r="B401" s="3" t="s">
+        <v>1447</v>
+      </c>
       <c r="C401" t="s">
         <v>741</v>
       </c>
+      <c r="D401" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E401" s="4" t="s">
+        <v>1454</v>
+      </c>
       <c r="I401" s="4" t="s">
         <v>1307</v>
+      </c>
+      <c r="K401" s="76" t="s">
+        <v>1448</v>
       </c>
       <c r="O401" s="3"/>
       <c r="P401" s="4"/>
@@ -13593,7 +14006,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="545" spans="3:9">
+    <row r="545" spans="3:11">
       <c r="C545" t="s">
         <v>884</v>
       </c>
@@ -13601,7 +14014,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="546" spans="3:9">
+    <row r="546" spans="3:11">
       <c r="C546" t="s">
         <v>885</v>
       </c>
@@ -13609,7 +14022,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="547" spans="3:9">
+    <row r="547" spans="3:11">
       <c r="C547" t="s">
         <v>886</v>
       </c>
@@ -13617,17 +14030,17 @@
         <v>915</v>
       </c>
     </row>
-    <row r="548" spans="3:9">
+    <row r="548" spans="3:11">
       <c r="C548" s="2" t="s">
         <v>1354</v>
       </c>
       <c r="I548" s="73"/>
     </row>
-    <row r="549" spans="3:9">
+    <row r="549" spans="3:11">
       <c r="C549"/>
       <c r="I549" s="73"/>
     </row>
-    <row r="550" spans="3:9">
+    <row r="550" spans="3:11">
       <c r="C550" s="113" t="s">
         <v>1308</v>
       </c>
@@ -13640,7 +14053,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="551" spans="3:9">
+    <row r="551" spans="3:11">
       <c r="C551" s="113" t="s">
         <v>1309</v>
       </c>
@@ -13653,15 +14066,34 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="553" spans="3:9" ht="21">
+    <row r="553" spans="3:11" ht="21">
       <c r="D553" s="84" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="554" spans="3:9">
+    <row r="554" spans="3:11">
       <c r="D554" s="17"/>
     </row>
-    <row r="559" spans="3:9">
+    <row r="556" spans="3:11">
+      <c r="D556" s="138"/>
+    </row>
+    <row r="557" spans="3:11">
+      <c r="D557" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="K557" s="76" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="558" spans="3:11">
+      <c r="D558" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="K558" s="76" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="559" spans="3:11">
       <c r="C559" s="103" t="s">
         <v>1070</v>
       </c>
@@ -13669,7 +14101,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="560" spans="3:9">
+    <row r="560" spans="3:11">
       <c r="C560" s="4" t="s">
         <v>1070</v>
       </c>
@@ -13697,6 +14129,9 @@
       <c r="C563" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D563" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I563" s="4" t="s">
         <v>1315</v>
       </c>
@@ -13705,6 +14140,9 @@
       <c r="C564" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D564" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I564" s="4" t="s">
         <v>1316</v>
       </c>
@@ -13713,6 +14151,9 @@
       <c r="C565" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D565" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I565" s="4" t="s">
         <v>1317</v>
       </c>
@@ -13781,16 +14222,18 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="574" spans="3:9" ht="29">
+    <row r="574" spans="3:9" ht="30">
       <c r="C574" s="120" t="s">
         <v>1070</v>
       </c>
-      <c r="D574" s="120"/>
+      <c r="D574" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I574" s="109" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="575" spans="3:9" ht="29">
+    <row r="575" spans="3:9" ht="30">
       <c r="C575" s="120" t="s">
         <v>1070</v>
       </c>
@@ -13799,7 +14242,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="576" spans="3:9" ht="29">
+    <row r="576" spans="3:9" ht="30">
       <c r="C576" s="120" t="s">
         <v>1070</v>
       </c>
@@ -13808,7 +14251,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="577" spans="3:9">
+    <row r="577" spans="3:12">
       <c r="C577" s="4" t="s">
         <v>1070</v>
       </c>
@@ -13816,124 +14259,199 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="578" spans="3:9">
+    <row r="578" spans="3:12">
       <c r="C578" s="17" t="s">
         <v>1070</v>
       </c>
+      <c r="D578" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I578" s="17" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="579" spans="3:9">
+    <row r="579" spans="3:12">
       <c r="C579" s="17" t="s">
         <v>1070</v>
       </c>
+      <c r="D579" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I579" s="17" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="580" spans="3:9">
+    <row r="580" spans="3:12">
       <c r="C580" s="17" t="s">
         <v>1070</v>
       </c>
+      <c r="D580" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I580" s="17" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="581" spans="3:9">
+    <row r="581" spans="3:12">
       <c r="C581" s="17" t="s">
         <v>1070</v>
       </c>
+      <c r="D581" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I581" s="17" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="582" spans="3:9">
+    <row r="582" spans="3:12">
       <c r="C582" s="17" t="s">
         <v>1070</v>
       </c>
+      <c r="D582" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I582" s="17" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="583" spans="3:9">
+    <row r="583" spans="3:12">
       <c r="C583" s="17" t="s">
         <v>1070</v>
       </c>
+      <c r="D583" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I583" s="17" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="584" spans="3:9">
+    <row r="584" spans="3:12">
       <c r="C584" s="17" t="s">
         <v>1070</v>
       </c>
+      <c r="D584" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I584" s="17" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="585" spans="3:9">
+    <row r="585" spans="3:12">
       <c r="C585" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D585" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I585" s="4" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="586" spans="3:9">
+      <c r="K585" s="76" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L585" s="123">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="586" spans="3:12">
       <c r="C586" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D586" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I586" s="4" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="587" spans="3:9">
+      <c r="K586" s="76" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="587" spans="3:12">
       <c r="C587" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D587" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I587" s="4" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="588" spans="3:9">
+      <c r="K587" s="76" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="588" spans="3:12">
       <c r="C588" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D588" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I588" s="4" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="589" spans="3:9">
+      <c r="K588" s="76" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="589" spans="3:12">
       <c r="C589" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D589" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I589" s="4" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="590" spans="3:9">
+      <c r="K589" s="76" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="590" spans="3:12">
       <c r="C590" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D590" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I590" s="4" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="591" spans="3:9">
+      <c r="K590" s="76" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="591" spans="3:12">
       <c r="C591" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D591" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I591" s="4" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="592" spans="3:9">
+      <c r="K591" s="76" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="592" spans="3:12">
       <c r="C592" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D592" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I592" s="4" t="s">
         <v>1341</v>
+      </c>
+      <c r="K592" s="76" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L592" s="123" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="593" spans="3:13">
@@ -13948,14 +14466,26 @@
       <c r="C594" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D594" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I594" s="4" t="s">
         <v>1343</v>
+      </c>
+      <c r="K594" s="76" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L594" s="123" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="595" spans="3:13">
       <c r="C595" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D595" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I595" s="4" t="s">
         <v>1344</v>
       </c>
@@ -13964,6 +14494,9 @@
       <c r="C596" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="D596" s="138" t="s">
+        <v>945</v>
+      </c>
       <c r="I596" s="4" t="s">
         <v>1345</v>
       </c>
@@ -14030,6 +14563,17 @@
       </c>
       <c r="I604" s="4" t="s">
         <v>1352</v>
+      </c>
+    </row>
+    <row r="605" spans="3:13">
+      <c r="D605" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="K605" s="76" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L605" s="123">
+        <v>86</v>
       </c>
     </row>
     <row r="608" spans="3:13">
@@ -14148,7 +14692,7 @@
     <row r="622" spans="9:13">
       <c r="M622" s="15"/>
     </row>
-    <row r="630" spans="5:12">
+    <row r="630" spans="4:12">
       <c r="E630" s="129" t="s">
         <v>1386</v>
       </c>
@@ -14157,6 +14701,423 @@
       </c>
       <c r="L630" s="123">
         <v>99</v>
+      </c>
+    </row>
+    <row r="632" spans="4:12">
+      <c r="D632" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K632" s="76" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L632" s="123" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="633" spans="4:12">
+      <c r="D633" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K633" s="77" t="s">
+        <v>1405</v>
+      </c>
+      <c r="L633" s="124"/>
+    </row>
+    <row r="637" spans="4:12">
+      <c r="D637" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="K637" s="76" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="640" spans="4:12">
+      <c r="D640" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E640" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K640" s="76" t="s">
+        <v>1460</v>
+      </c>
+      <c r="L640" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="641" spans="4:12">
+      <c r="D641" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E641" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K641" s="76" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L641" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="642" spans="4:12">
+      <c r="D642" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E642" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K642" s="76" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L642" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="643" spans="4:12">
+      <c r="D643" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E643" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K643" s="76" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L643" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="644" spans="4:12">
+      <c r="D644" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E644" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K644" s="76" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L644" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="645" spans="4:12">
+      <c r="D645" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E645" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K645" s="76" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L645" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="646" spans="4:12">
+      <c r="D646" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E646" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K646" s="76" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L646" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="647" spans="4:12">
+      <c r="D647" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E647" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K647" s="76" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L647" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="648" spans="4:12">
+      <c r="D648" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E648" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="K648" s="76" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L648" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="649" spans="4:12">
+      <c r="D649" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E649" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K649" s="76" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L649" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="650" spans="4:12">
+      <c r="D650" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E650" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K650" s="76" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L650" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="651" spans="4:12">
+      <c r="D651" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E651" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K651" s="76" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L651" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="652" spans="4:12">
+      <c r="D652" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E652" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K652" s="76" t="s">
+        <v>1472</v>
+      </c>
+      <c r="L652" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="653" spans="4:12">
+      <c r="D653" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E653" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="K653" s="76" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L653" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="654" spans="4:12">
+      <c r="D654" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E654" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K654" s="76" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L654" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="655" spans="4:12">
+      <c r="D655" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E655" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="K655" s="76" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L655" s="123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="658" spans="4:11">
+      <c r="D658" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K658" s="76" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="659" spans="4:11">
+      <c r="D659" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K659" s="76" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="660" spans="4:11">
+      <c r="D660" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K660" s="76" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="661" spans="4:11">
+      <c r="D661" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K661" s="76" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="662" spans="4:11">
+      <c r="D662" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K662" s="76" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="663" spans="4:11">
+      <c r="D663" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K663" s="76" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="664" spans="4:11">
+      <c r="D664" s="4">
+        <v>3</v>
+      </c>
+      <c r="K664" s="76" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="665" spans="4:11">
+      <c r="D665" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K665" s="76" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="666" spans="4:11">
+      <c r="D666" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K666" s="76" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="667" spans="4:11">
+      <c r="D667" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K667" s="76" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="668" spans="4:11">
+      <c r="D668" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K668" s="76" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="669" spans="4:11">
+      <c r="D669" s="4" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="671" spans="4:11">
+      <c r="D671" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="K671" s="76" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="672" spans="4:11">
+      <c r="D672" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K672" s="76" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="675" spans="4:12">
+      <c r="D675" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E675" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K675" s="76" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L675" s="123" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="676" spans="4:12">
+      <c r="D676" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E676" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K676" s="76" t="s">
+        <v>1517</v>
+      </c>
+      <c r="L676" s="123" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="677" spans="4:12">
+      <c r="D677" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K677" s="76" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L677" s="123" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="678" spans="4:12">
+      <c r="D678" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K678" s="76" t="s">
+        <v>1519</v>
+      </c>
+      <c r="L678" s="123" t="s">
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
@@ -14188,9 +15149,9 @@
       <selection activeCell="H499" sqref="H499:N534"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="3"/>
+    <col min="1" max="2" width="8.7109375" style="3"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23503,9 +24464,9 @@
       <selection activeCell="S80" sqref="S80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="13" width="8.7265625" style="99"/>
+    <col min="2" max="13" width="8.7109375" style="99"/>
   </cols>
   <sheetData>
     <row r="15" spans="2:25">
